--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2763372.198325588</v>
+        <v>2762663.028551281</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -750,52 +750,52 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>2.817899082923868</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
     </row>
     <row r="4">
@@ -984,55 +984,55 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.817899082923868</v>
+      </c>
+      <c r="R6" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="G6" t="n">
+      <c r="S6" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.1776483877525582</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.915334971111</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.9587718714988</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20.27270370120789</v>
+        <v>169.2219024907746</v>
       </c>
       <c r="I11" t="n">
-        <v>63.24867564227714</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.15336415818053</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.73451669048101</v>
+        <v>49.73451669048104</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6584314502356</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.33726223721348</v>
+        <v>72.33726223721351</v>
       </c>
       <c r="V11" t="n">
-        <v>143.0663958384235</v>
+        <v>143.0663958384236</v>
       </c>
       <c r="W11" t="n">
-        <v>160.0830760550384</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.704763753637451</v>
+        <v>9.704763753637479</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>70.37524791795215</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.16562852300964</v>
       </c>
       <c r="S12" t="n">
+        <v>13.79088422295321</v>
+      </c>
+      <c r="T12" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="T12" t="n">
-        <v>37.16046115686558</v>
-      </c>
       <c r="U12" t="n">
+        <v>59.41472947352857</v>
+      </c>
+      <c r="V12" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="V12" t="n">
-        <v>62.83553314467378</v>
-      </c>
       <c r="W12" t="n">
-        <v>88.89119580628312</v>
+        <v>88.89119580628315</v>
       </c>
       <c r="X12" t="n">
-        <v>39.49952666874213</v>
+        <v>39.49952666874216</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.57089836329715</v>
+        <v>45.57089836329718</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.64393163552157</v>
+        <v>25.6439316355216</v>
       </c>
       <c r="S13" t="n">
-        <v>57.63526026840614</v>
+        <v>57.63526026840617</v>
       </c>
       <c r="T13" t="n">
-        <v>45.95077043248364</v>
+        <v>45.95077043248367</v>
       </c>
       <c r="U13" t="n">
         <v>110.8432023861719</v>
       </c>
       <c r="V13" t="n">
-        <v>67.29562741372143</v>
+        <v>67.29562741372146</v>
       </c>
       <c r="W13" t="n">
         <v>112.4973193186069</v>
       </c>
       <c r="X13" t="n">
-        <v>44.10606763751406</v>
+        <v>44.10606763751409</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.32788504343995</v>
+        <v>39.32788504343998</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.3921096104503</v>
       </c>
       <c r="D14" t="n">
         <v>159.9587718714988</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.24867564227715</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.91849282076602</v>
+        <v>17.1533641581805</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.73451669048098</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.65843145023558</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.33726223721345</v>
       </c>
       <c r="V14" t="n">
         <v>143.0663958384235</v>
       </c>
       <c r="W14" t="n">
-        <v>160.0830760550384</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>71.21234578807261</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.704763753637451</v>
+        <v>9.704763753637422</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S15" t="n">
-        <v>13.79088422295318</v>
+        <v>123.8481717622921</v>
       </c>
       <c r="T15" t="n">
+        <v>37.16046115686555</v>
+      </c>
+      <c r="U15" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="U15" t="n">
-        <v>156.2400763689623</v>
-      </c>
       <c r="V15" t="n">
-        <v>62.83553314467378</v>
+        <v>62.83553314467375</v>
       </c>
       <c r="W15" t="n">
-        <v>88.89119580628312</v>
+        <v>88.89119580628309</v>
       </c>
       <c r="X15" t="n">
-        <v>39.49952666874213</v>
+        <v>39.49952666874211</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.57089836329715</v>
+        <v>45.57089836329712</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.64393163552157</v>
+        <v>25.64393163552154</v>
       </c>
       <c r="S16" t="n">
-        <v>57.63526026840614</v>
+        <v>57.63526026840611</v>
       </c>
       <c r="T16" t="n">
-        <v>45.95077043248364</v>
+        <v>45.95077043248361</v>
       </c>
       <c r="U16" t="n">
         <v>110.8432023861719</v>
       </c>
       <c r="V16" t="n">
-        <v>67.29562741372143</v>
+        <v>67.29562741372141</v>
       </c>
       <c r="W16" t="n">
-        <v>112.4973193186069</v>
+        <v>112.4973193186068</v>
       </c>
       <c r="X16" t="n">
-        <v>44.10606763751406</v>
+        <v>44.10606763751403</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.32788504343995</v>
+        <v>39.32788504343992</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>52.6646600837505</v>
       </c>
       <c r="D17" t="n">
-        <v>40.23132234479912</v>
+        <v>40.23132234479897</v>
       </c>
       <c r="E17" t="n">
         <v>73.93807476420784</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>69.89873428033745</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.962098501482274</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
+        <v>158.8377428934169</v>
+      </c>
+      <c r="W18" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>121.2986921063727</v>
       </c>
       <c r="H20" t="n">
-        <v>49.49445296407472</v>
+        <v>49.4944529640747</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>31.03497982268678</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S21" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="V21" t="n">
-        <v>17.05451116027274</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7.347160210507065</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.2377854165523</v>
+        <v>182.2100549716515</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.2377854165525</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.530739952683</v>
+        <v>160.5307399526829</v>
       </c>
       <c r="C26" t="n">
-        <v>136.6489969560285</v>
+        <v>136.6489969560284</v>
       </c>
       <c r="D26" t="n">
         <v>124.2156592170769</v>
@@ -2567,13 +2567,13 @@
         <v>189.6427492148631</v>
       </c>
       <c r="G26" t="n">
-        <v>205.2830289786507</v>
+        <v>205.2830289786506</v>
       </c>
       <c r="H26" t="n">
         <v>133.4787898363527</v>
       </c>
       <c r="I26" t="n">
-        <v>27.50556298785526</v>
+        <v>27.50556298785524</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.99140403605912</v>
+        <v>13.9914040360591</v>
       </c>
       <c r="T26" t="n">
-        <v>8.915318795813732</v>
+        <v>8.915318795813697</v>
       </c>
       <c r="U26" t="n">
-        <v>36.5941495827916</v>
+        <v>36.59414958279157</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3232831840017</v>
+        <v>107.3232831840016</v>
       </c>
       <c r="W26" t="n">
         <v>124.3399634006165</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2262138695558</v>
+        <v>146.2262138695557</v>
       </c>
       <c r="Y26" t="n">
         <v>168.7290669932995</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>121.3155502405074</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T27" t="n">
-        <v>1.417348502443704</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U27" t="n">
-        <v>23.67161681910666</v>
+        <v>23.67161681910663</v>
       </c>
       <c r="V27" t="n">
-        <v>27.0924204902519</v>
+        <v>27.09242049025187</v>
       </c>
       <c r="W27" t="n">
-        <v>53.14808315186124</v>
+        <v>143.0010494842888</v>
       </c>
       <c r="X27" t="n">
-        <v>3.756414014320256</v>
+        <v>3.756414014320228</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.82778570887524</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.89214761398426</v>
+        <v>21.89214761398424</v>
       </c>
       <c r="T28" t="n">
-        <v>10.20765777806176</v>
+        <v>10.20765777806173</v>
       </c>
       <c r="U28" t="n">
-        <v>75.10008973175002</v>
+        <v>75.10008973174999</v>
       </c>
       <c r="V28" t="n">
-        <v>31.55251475929956</v>
+        <v>31.55251475929953</v>
       </c>
       <c r="W28" t="n">
-        <v>76.75420666418498</v>
+        <v>76.75420666418495</v>
       </c>
       <c r="X28" t="n">
-        <v>8.36295498309218</v>
+        <v>8.362954983092152</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.58477238901807</v>
+        <v>3.584772389018042</v>
       </c>
     </row>
     <row r="29">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>80.2992904240773</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.973848927594</v>
+        <v>1.417348502443732</v>
       </c>
       <c r="U30" t="n">
-        <v>23.67161681910669</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V30" t="n">
-        <v>27.09242049025193</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.14808315186127</v>
+        <v>255.8136826250325</v>
       </c>
       <c r="X30" t="n">
         <v>3.756414014320285</v>
@@ -3029,7 +3029,7 @@
         <v>160.4485653603267</v>
       </c>
       <c r="C32" t="n">
-        <v>136.5668223636722</v>
+        <v>136.5668223636721</v>
       </c>
       <c r="D32" t="n">
         <v>124.1334846247206</v>
@@ -3041,13 +3041,13 @@
         <v>189.5605746225068</v>
       </c>
       <c r="G32" t="n">
-        <v>205.2008543862944</v>
+        <v>205.2008543862943</v>
       </c>
       <c r="H32" t="n">
-        <v>133.3966152439964</v>
+        <v>133.3966152439963</v>
       </c>
       <c r="I32" t="n">
-        <v>27.42338839549896</v>
+        <v>27.42338839549893</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.90922944370283</v>
+        <v>13.9092294437028</v>
       </c>
       <c r="T32" t="n">
-        <v>8.833144203457437</v>
+        <v>8.833144203457408</v>
       </c>
       <c r="U32" t="n">
-        <v>36.51197499043531</v>
+        <v>36.51197499043528</v>
       </c>
       <c r="V32" t="n">
-        <v>107.2411085916454</v>
+        <v>107.2411085916453</v>
       </c>
       <c r="W32" t="n">
         <v>124.2577888082602</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>54.2489676079701</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>214.973848927594</v>
       </c>
       <c r="U33" t="n">
-        <v>23.58944222675036</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.01024589789557</v>
       </c>
       <c r="W33" t="n">
-        <v>53.06590855950495</v>
+        <v>53.06590855950492</v>
       </c>
       <c r="X33" t="n">
-        <v>3.674239421963961</v>
+        <v>3.674239421963932</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.745611116518972</v>
+        <v>63.99457872448916</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.80997302162797</v>
+        <v>21.80997302162794</v>
       </c>
       <c r="T34" t="n">
-        <v>10.12548318570546</v>
+        <v>10.12548318570544</v>
       </c>
       <c r="U34" t="n">
-        <v>75.01791513939372</v>
+        <v>75.01791513939369</v>
       </c>
       <c r="V34" t="n">
-        <v>31.47034016694326</v>
+        <v>31.47034016694323</v>
       </c>
       <c r="W34" t="n">
-        <v>76.67203207182868</v>
+        <v>76.67203207182865</v>
       </c>
       <c r="X34" t="n">
-        <v>8.280780390735885</v>
+        <v>8.280780390735856</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.502597796661775</v>
+        <v>3.502597796661746</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>103.1588204764037</v>
       </c>
       <c r="C35" t="n">
-        <v>79.27707747974921</v>
+        <v>79.27707747974915</v>
       </c>
       <c r="D35" t="n">
-        <v>66.84373974079767</v>
+        <v>66.84373974079762</v>
       </c>
       <c r="E35" t="n">
         <v>100.5504921602065</v>
       </c>
       <c r="F35" t="n">
-        <v>132.2708297385839</v>
+        <v>132.2708297385838</v>
       </c>
       <c r="G35" t="n">
-        <v>147.9111095023714</v>
+        <v>147.9111095023713</v>
       </c>
       <c r="H35" t="n">
-        <v>76.1068703600734</v>
+        <v>76.10687036007334</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>49.95136370772241</v>
+        <v>49.95136370772235</v>
       </c>
       <c r="W35" t="n">
-        <v>66.96804392433728</v>
+        <v>66.96804392433722</v>
       </c>
       <c r="X35" t="n">
-        <v>88.85429439327652</v>
+        <v>88.85429439327646</v>
       </c>
       <c r="Y35" t="n">
-        <v>111.3571475170203</v>
+        <v>111.3571475170202</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.973848927594</v>
+        <v>111.6429157740932</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>75.75658472786414</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>17.72817025547075</v>
+        <v>17.72817025547069</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>19.38228718790572</v>
+        <v>19.38228718790566</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>103.1588204764037</v>
       </c>
       <c r="C38" t="n">
-        <v>79.27707747974921</v>
+        <v>79.27707747974915</v>
       </c>
       <c r="D38" t="n">
-        <v>66.84373974079767</v>
+        <v>66.84373974079762</v>
       </c>
       <c r="E38" t="n">
         <v>100.5504921602065</v>
       </c>
       <c r="F38" t="n">
-        <v>132.2708297385839</v>
+        <v>132.2708297385838</v>
       </c>
       <c r="G38" t="n">
-        <v>147.9111095023714</v>
+        <v>147.9111095023713</v>
       </c>
       <c r="H38" t="n">
-        <v>76.1068703600734</v>
+        <v>76.10687036007334</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>49.95136370772241</v>
+        <v>49.95136370772235</v>
       </c>
       <c r="W38" t="n">
-        <v>66.96804392433728</v>
+        <v>66.96804392433722</v>
       </c>
       <c r="X38" t="n">
-        <v>88.85429439327652</v>
+        <v>88.85429439327646</v>
       </c>
       <c r="Y38" t="n">
-        <v>111.3571475170203</v>
+        <v>111.3571475170202</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>149.8942003886906</v>
+        <v>56.19007225833806</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>17.72817025547075</v>
+        <v>17.72817025547069</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>19.38228718790572</v>
+        <v>19.38228718790566</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>1.294375714416009</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.64252016400599</v>
+        <v>122.8159824243455</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3977,7 +3977,7 @@
         <v>133.0251769648277</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1434339681731</v>
+        <v>109.1434339681732</v>
       </c>
       <c r="D44" t="n">
         <v>96.71009622922168</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S45" t="n">
-        <v>30.74932690157248</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>147.5876867006163</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.64252016400599</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C3" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D3" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E3" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F3" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G3" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H3" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I3" t="n">
         <v>0.2559399712010781</v>
@@ -4410,19 +4410,19 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L3" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M3" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N3" t="n">
         <v>9.757711402041103</v>
       </c>
       <c r="O3" t="n">
-        <v>12.79699856005391</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="P3" t="n">
         <v>12.79699856005391</v>
@@ -4434,25 +4434,25 @@
         <v>12.79699856005391</v>
       </c>
       <c r="S3" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T3" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U3" t="n">
         <v>9.565433267111001</v>
       </c>
       <c r="V3" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W3" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X3" t="n">
-        <v>6.719070557086891</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="4">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C5" t="n">
         <v>6.719070557086891</v>
@@ -4571,46 +4571,46 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L5" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M5" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F6" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G6" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H6" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I6" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J6" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K6" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L6" t="n">
         <v>6.462484272827225</v>
@@ -4659,37 +4659,37 @@
         <v>9.629741416440567</v>
       </c>
       <c r="O6" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P6" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R6" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S6" t="n">
-        <v>12.79699856005391</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="T6" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="U6" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="V6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="W6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="X6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="7">
@@ -4823,16 +4823,16 @@
         <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
         <v>7.065308212205419</v>
@@ -4860,7 +4860,7 @@
         <v>3.833742919262513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
         <v>0.2813495544899843</v>
@@ -4884,13 +4884,13 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.763050291303539</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>3.763050291303539</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
         <v>7.104076250872104</v>
@@ -4905,28 +4905,28 @@
         <v>14.06747772449921</v>
       </c>
       <c r="R9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V9" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="W9" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="X9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.833742919262513</v>
+        <v>6.962690994954155</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.9985695151258</v>
+        <v>376.129414658907</v>
       </c>
       <c r="C11" t="n">
-        <v>260.9985695151258</v>
+        <v>376.129414658907</v>
       </c>
       <c r="D11" t="n">
-        <v>99.42405247320778</v>
+        <v>376.129414658907</v>
       </c>
       <c r="E11" t="n">
-        <v>99.42405247320778</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="F11" t="n">
-        <v>99.42405247320778</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="G11" t="n">
-        <v>99.42405247320778</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="H11" t="n">
-        <v>78.94657398713947</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I11" t="n">
         <v>15.05902283332418</v>
@@ -5042,49 +5042,49 @@
         <v>114.9664989666077</v>
       </c>
       <c r="K11" t="n">
-        <v>114.9664989666077</v>
+        <v>284.1710136775582</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4754254260753</v>
+        <v>330.6799401370258</v>
       </c>
       <c r="M11" t="n">
-        <v>347.830832988462</v>
+        <v>411.3060418184392</v>
       </c>
       <c r="N11" t="n">
-        <v>479.520115458505</v>
+        <v>486.3943221000576</v>
       </c>
       <c r="O11" t="n">
-        <v>665.8755230208917</v>
+        <v>672.7497296624443</v>
       </c>
       <c r="P11" t="n">
-        <v>665.8755230208917</v>
+        <v>672.7497296624443</v>
       </c>
       <c r="Q11" t="n">
         <v>752.9511416662092</v>
       </c>
       <c r="R11" t="n">
-        <v>735.6245112034005</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="S11" t="n">
-        <v>685.38762565746</v>
+        <v>702.7142561202687</v>
       </c>
       <c r="T11" t="n">
-        <v>640.2780989400503</v>
+        <v>702.7142561202687</v>
       </c>
       <c r="U11" t="n">
-        <v>567.2101572862995</v>
+        <v>629.6463144665177</v>
       </c>
       <c r="V11" t="n">
-        <v>422.6986463383969</v>
+        <v>485.1348035186151</v>
       </c>
       <c r="W11" t="n">
-        <v>260.9985695151258</v>
+        <v>485.1348035186151</v>
       </c>
       <c r="X11" t="n">
-        <v>260.9985695151258</v>
+        <v>485.1348035186151</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.9985695151258</v>
+        <v>485.1348035186151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95.94792351169751</v>
+        <v>24.86181450366507</v>
       </c>
       <c r="C12" t="n">
-        <v>86.14513184135666</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D12" t="n">
-        <v>86.14513184135666</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E12" t="n">
         <v>15.05902283332418</v>
@@ -5142,28 +5142,28 @@
         <v>752.9511416662091</v>
       </c>
       <c r="R12" t="n">
-        <v>752.9511416662091</v>
+        <v>654.8040421480175</v>
       </c>
       <c r="S12" t="n">
-        <v>562.8119644777723</v>
+        <v>640.8738560642264</v>
       </c>
       <c r="T12" t="n">
-        <v>525.2761451274031</v>
+        <v>450.7346788757897</v>
       </c>
       <c r="U12" t="n">
-        <v>335.1369679389664</v>
+        <v>390.7198006197002</v>
       </c>
       <c r="V12" t="n">
-        <v>271.6667324392959</v>
+        <v>200.5806234312635</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8776457662827</v>
+        <v>110.7915367582503</v>
       </c>
       <c r="X12" t="n">
-        <v>141.9791339796744</v>
+        <v>70.89302497164202</v>
       </c>
       <c r="Y12" t="n">
-        <v>95.94792351169751</v>
+        <v>24.86181450366507</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.25352526802696</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="C13" t="n">
-        <v>15.25352526802696</v>
+        <v>26.30166756409271</v>
       </c>
       <c r="D13" t="n">
-        <v>15.25352526802696</v>
+        <v>26.30166756409271</v>
       </c>
       <c r="E13" t="n">
-        <v>15.25352526802696</v>
+        <v>26.30166756409271</v>
       </c>
       <c r="F13" t="n">
-        <v>15.25352526802696</v>
+        <v>64.79930806085169</v>
       </c>
       <c r="G13" t="n">
-        <v>23.99265911754583</v>
+        <v>64.79930806085169</v>
       </c>
       <c r="H13" t="n">
-        <v>23.99265911754583</v>
+        <v>64.79930806085169</v>
       </c>
       <c r="I13" t="n">
-        <v>23.99265911754583</v>
+        <v>77.61200870971177</v>
       </c>
       <c r="J13" t="n">
-        <v>23.99265911754583</v>
+        <v>101.6708193280603</v>
       </c>
       <c r="K13" t="n">
-        <v>23.99265911754583</v>
+        <v>101.6708193280603</v>
       </c>
       <c r="L13" t="n">
-        <v>23.99265911754583</v>
+        <v>245.7862194009996</v>
       </c>
       <c r="M13" t="n">
-        <v>174.9687923003943</v>
+        <v>245.7862194009996</v>
       </c>
       <c r="N13" t="n">
-        <v>334.5569116234049</v>
+        <v>405.3743387240102</v>
       </c>
       <c r="O13" t="n">
-        <v>473.4029283408812</v>
+        <v>405.3743387240102</v>
       </c>
       <c r="P13" t="n">
-        <v>473.4029283408812</v>
+        <v>523.4429260008653</v>
       </c>
       <c r="Q13" t="n">
-        <v>523.4429260008652</v>
+        <v>523.4429260008653</v>
       </c>
       <c r="R13" t="n">
-        <v>497.5399647528636</v>
+        <v>497.5399647528637</v>
       </c>
       <c r="S13" t="n">
-        <v>439.3225301383119</v>
+        <v>439.3225301383121</v>
       </c>
       <c r="T13" t="n">
-        <v>392.9076105095406</v>
+        <v>392.9076105095407</v>
       </c>
       <c r="U13" t="n">
-        <v>280.9447798164376</v>
+        <v>280.9447798164377</v>
       </c>
       <c r="V13" t="n">
-        <v>212.9693985904564</v>
+        <v>212.9693985904565</v>
       </c>
       <c r="W13" t="n">
-        <v>99.33574271307572</v>
+        <v>99.33574271307577</v>
       </c>
       <c r="X13" t="n">
-        <v>54.78415924083929</v>
+        <v>54.78415924083932</v>
       </c>
       <c r="Y13" t="n">
         <v>15.05902283332418</v>
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>430.6602682174942</v>
+        <v>350.766983926202</v>
       </c>
       <c r="C14" t="n">
-        <v>430.6602682174942</v>
+        <v>176.6335398752421</v>
       </c>
       <c r="D14" t="n">
-        <v>269.0857511755762</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E14" t="n">
-        <v>269.0857511755762</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="F14" t="n">
-        <v>269.0857511755762</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="G14" t="n">
-        <v>78.94657398713949</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="H14" t="n">
-        <v>78.94657398713949</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I14" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="J14" t="n">
-        <v>34.26681705886924</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="K14" t="n">
-        <v>203.4713317698198</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="L14" t="n">
-        <v>249.9802582292874</v>
+        <v>201.414430395711</v>
       </c>
       <c r="M14" t="n">
-        <v>330.6063599107008</v>
+        <v>371.7002651231329</v>
       </c>
       <c r="N14" t="n">
-        <v>405.6946401923192</v>
+        <v>558.0556726855197</v>
       </c>
       <c r="O14" t="n">
         <v>592.0500477547059</v>
@@ -5300,28 +5300,28 @@
         <v>752.9511416662092</v>
       </c>
       <c r="R14" t="n">
-        <v>736.8718559886679</v>
+        <v>735.6245112034006</v>
       </c>
       <c r="S14" t="n">
-        <v>736.8718559886679</v>
+        <v>685.3876256574603</v>
       </c>
       <c r="T14" t="n">
-        <v>736.8718559886679</v>
+        <v>640.2780989400505</v>
       </c>
       <c r="U14" t="n">
-        <v>736.8718559886679</v>
+        <v>567.2101572862992</v>
       </c>
       <c r="V14" t="n">
-        <v>592.3603450407653</v>
+        <v>422.6986463383966</v>
       </c>
       <c r="W14" t="n">
-        <v>430.6602682174942</v>
+        <v>422.6986463383966</v>
       </c>
       <c r="X14" t="n">
-        <v>430.6602682174942</v>
+        <v>422.6986463383966</v>
       </c>
       <c r="Y14" t="n">
-        <v>430.6602682174942</v>
+        <v>350.766983926202</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.8744750081648</v>
+        <v>24.86181450366502</v>
       </c>
       <c r="C15" t="n">
-        <v>142.071683337824</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D15" t="n">
-        <v>142.071683337824</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E15" t="n">
-        <v>142.071683337824</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="F15" t="n">
-        <v>142.071683337824</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="G15" t="n">
-        <v>142.071683337824</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="H15" t="n">
         <v>15.05902283332418</v>
@@ -5358,7 +5358,7 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K15" t="n">
-        <v>52.90632646829521</v>
+        <v>52.90632646829523</v>
       </c>
       <c r="L15" t="n">
         <v>170.0832391874856</v>
@@ -5370,37 +5370,37 @@
         <v>537.9332412327074</v>
       </c>
       <c r="O15" t="n">
-        <v>669.4632308531762</v>
+        <v>669.4632308531761</v>
       </c>
       <c r="P15" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="Q15" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="R15" t="n">
-        <v>752.9511416662092</v>
+        <v>616.8250188659944</v>
       </c>
       <c r="S15" t="n">
-        <v>739.0209555824181</v>
+        <v>491.7258554697397</v>
       </c>
       <c r="T15" t="n">
-        <v>548.8817783939814</v>
+        <v>454.1900361193705</v>
       </c>
       <c r="U15" t="n">
-        <v>391.0635194354337</v>
+        <v>264.0508589309338</v>
       </c>
       <c r="V15" t="n">
-        <v>327.5932839357632</v>
+        <v>200.5806234312633</v>
       </c>
       <c r="W15" t="n">
-        <v>237.80419726275</v>
+        <v>110.7915367582501</v>
       </c>
       <c r="X15" t="n">
-        <v>197.9056854761417</v>
+        <v>70.89302497164191</v>
       </c>
       <c r="Y15" t="n">
-        <v>151.8744750081648</v>
+        <v>24.86181450366502</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.05902283332418</v>
       </c>
       <c r="D16" t="n">
-        <v>15.05902283332418</v>
+        <v>47.36345297814179</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05902283332418</v>
+        <v>47.36345297814179</v>
       </c>
       <c r="F16" t="n">
-        <v>15.05902283332418</v>
+        <v>85.86109347490083</v>
       </c>
       <c r="G16" t="n">
-        <v>24.07990718018863</v>
+        <v>85.86109347490083</v>
       </c>
       <c r="H16" t="n">
-        <v>35.94365179351058</v>
+        <v>97.7248380882228</v>
       </c>
       <c r="I16" t="n">
-        <v>48.7563524423707</v>
+        <v>97.7248380882228</v>
       </c>
       <c r="J16" t="n">
-        <v>48.7563524423707</v>
+        <v>154.6802930370656</v>
       </c>
       <c r="K16" t="n">
-        <v>48.7563524423707</v>
+        <v>154.6802930370656</v>
       </c>
       <c r="L16" t="n">
-        <v>192.87175251531</v>
+        <v>154.6802930370656</v>
       </c>
       <c r="M16" t="n">
-        <v>192.87175251531</v>
+        <v>154.6802930370656</v>
       </c>
       <c r="N16" t="n">
-        <v>334.5569116234049</v>
+        <v>314.2684123600761</v>
       </c>
       <c r="O16" t="n">
-        <v>473.4029283408812</v>
+        <v>405.3743387240096</v>
       </c>
       <c r="P16" t="n">
-        <v>473.4029283408812</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="Q16" t="n">
-        <v>523.4429260008652</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="R16" t="n">
-        <v>497.5399647528636</v>
+        <v>497.5399647528633</v>
       </c>
       <c r="S16" t="n">
-        <v>439.3225301383119</v>
+        <v>439.3225301383117</v>
       </c>
       <c r="T16" t="n">
-        <v>392.9076105095406</v>
+        <v>392.9076105095404</v>
       </c>
       <c r="U16" t="n">
-        <v>280.9447798164376</v>
+        <v>280.9447798164375</v>
       </c>
       <c r="V16" t="n">
-        <v>212.9693985904564</v>
+        <v>212.9693985904563</v>
       </c>
       <c r="W16" t="n">
-        <v>99.33574271307572</v>
+        <v>99.33574271307566</v>
       </c>
       <c r="X16" t="n">
-        <v>54.78415924083929</v>
+        <v>54.78415924083926</v>
       </c>
       <c r="Y16" t="n">
         <v>15.05902283332418</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.8222699098794</v>
+        <v>462.8222699098793</v>
       </c>
       <c r="C17" t="n">
-        <v>409.6256435626567</v>
+        <v>409.6256435626566</v>
       </c>
       <c r="D17" t="n">
-        <v>368.9879442244758</v>
+        <v>368.9879442244759</v>
       </c>
       <c r="E17" t="n">
-        <v>294.3030202202254</v>
+        <v>294.303020220225</v>
       </c>
       <c r="F17" t="n">
-        <v>187.5773511873111</v>
+        <v>187.5773511873107</v>
       </c>
       <c r="G17" t="n">
         <v>65.05341976673297</v>
@@ -5513,34 +5513,34 @@
         <v>15.05902283332419</v>
       </c>
       <c r="J17" t="n">
-        <v>15.05902283332419</v>
+        <v>69.70431515405045</v>
       </c>
       <c r="K17" t="n">
-        <v>15.05902283332419</v>
+        <v>256.0597227164372</v>
       </c>
       <c r="L17" t="n">
-        <v>201.414430395711</v>
+        <v>302.5686491759049</v>
       </c>
       <c r="M17" t="n">
-        <v>282.0405320771244</v>
+        <v>383.1947508573183</v>
       </c>
       <c r="N17" t="n">
-        <v>468.3959396395112</v>
+        <v>458.2830311389367</v>
       </c>
       <c r="O17" t="n">
-        <v>654.7513472018979</v>
+        <v>492.277406208123</v>
       </c>
       <c r="P17" t="n">
-        <v>654.7513472018979</v>
+        <v>492.277406208123</v>
       </c>
       <c r="Q17" t="n">
-        <v>752.9511416662093</v>
+        <v>678.6328137705098</v>
       </c>
       <c r="R17" t="n">
-        <v>752.9511416662093</v>
+        <v>678.6328137705098</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9511416662093</v>
+        <v>678.6328137705098</v>
       </c>
       <c r="T17" t="n">
         <v>752.9511416662093</v>
@@ -5549,16 +5549,16 @@
         <v>752.9511416662093</v>
       </c>
       <c r="V17" t="n">
-        <v>729.3764484220439</v>
+        <v>729.3764484220438</v>
       </c>
       <c r="W17" t="n">
-        <v>688.6131893025101</v>
+        <v>688.61318930251</v>
       </c>
       <c r="X17" t="n">
-        <v>625.742606476977</v>
+        <v>625.7426064769769</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.1418689809956</v>
+        <v>540.1418689809955</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.1369343624007</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="C18" t="n">
-        <v>194.1369343624007</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="D18" t="n">
-        <v>194.1369343624007</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="E18" t="n">
-        <v>194.1369343624007</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="F18" t="n">
-        <v>194.1369343624007</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="G18" t="n">
-        <v>194.1369343624007</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="H18" t="n">
-        <v>123.5321522610498</v>
+        <v>15.05902283332419</v>
       </c>
       <c r="I18" t="n">
         <v>15.05902283332419</v>
@@ -5613,31 +5613,31 @@
         <v>752.9511416662093</v>
       </c>
       <c r="Q18" t="n">
-        <v>752.9511416662093</v>
+        <v>745.9187189374393</v>
       </c>
       <c r="R18" t="n">
-        <v>752.9511416662093</v>
+        <v>745.9187189374393</v>
       </c>
       <c r="S18" t="n">
-        <v>562.8119644777726</v>
+        <v>745.9187189374393</v>
       </c>
       <c r="T18" t="n">
-        <v>372.6727872893358</v>
+        <v>745.9187189374393</v>
       </c>
       <c r="U18" t="n">
-        <v>372.6727872893358</v>
+        <v>555.7795417490025</v>
       </c>
       <c r="V18" t="n">
-        <v>372.6727872893358</v>
+        <v>395.3373772101976</v>
       </c>
       <c r="W18" t="n">
-        <v>372.6727872893358</v>
+        <v>205.1982000217609</v>
       </c>
       <c r="X18" t="n">
-        <v>372.6727872893358</v>
+        <v>205.1982000217609</v>
       </c>
       <c r="Y18" t="n">
-        <v>372.6727872893358</v>
+        <v>15.05902283332419</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>462.8222699098787</v>
+        <v>462.8222699098799</v>
       </c>
       <c r="C20" t="n">
-        <v>409.6256435626559</v>
+        <v>409.6256435626573</v>
       </c>
       <c r="D20" t="n">
-        <v>368.9879442244752</v>
+        <v>368.9879442244765</v>
       </c>
       <c r="E20" t="n">
-        <v>294.3030202202249</v>
+        <v>294.3030202202261</v>
       </c>
       <c r="F20" t="n">
-        <v>187.5773511873106</v>
+        <v>187.5773511873117</v>
       </c>
       <c r="G20" t="n">
-        <v>65.053419766733</v>
+        <v>65.05341976673299</v>
       </c>
       <c r="H20" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="I20" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="J20" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="K20" t="n">
-        <v>201.414430395711</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="L20" t="n">
-        <v>247.9233568551785</v>
+        <v>61.56794929279177</v>
       </c>
       <c r="M20" t="n">
-        <v>328.5494585365919</v>
+        <v>142.1940509742052</v>
       </c>
       <c r="N20" t="n">
-        <v>514.9048660989787</v>
+        <v>328.5494585365922</v>
       </c>
       <c r="O20" t="n">
-        <v>566.5957341038225</v>
+        <v>390.7290616932892</v>
       </c>
       <c r="P20" t="n">
-        <v>566.5957341038225</v>
+        <v>577.0844692556761</v>
       </c>
       <c r="Q20" t="n">
-        <v>752.9511416662092</v>
+        <v>577.0844692556761</v>
       </c>
       <c r="R20" t="n">
-        <v>752.9511416662092</v>
+        <v>678.6328137705103</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9511416662092</v>
+        <v>678.6328137705103</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662099</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662099</v>
       </c>
       <c r="V20" t="n">
-        <v>729.3764484220438</v>
+        <v>729.3764484220445</v>
       </c>
       <c r="W20" t="n">
-        <v>688.6131893025093</v>
+        <v>688.6131893025107</v>
       </c>
       <c r="X20" t="n">
-        <v>625.7426064769763</v>
+        <v>625.7426064769776</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.1418689809949</v>
+        <v>540.1418689809962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3068311511287</v>
+        <v>46.40748730068458</v>
       </c>
       <c r="C21" t="n">
-        <v>165.3068311511287</v>
+        <v>46.40748730068458</v>
       </c>
       <c r="D21" t="n">
-        <v>165.3068311511287</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="E21" t="n">
-        <v>165.3068311511287</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="F21" t="n">
-        <v>165.3068311511287</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="G21" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="H21" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="I21" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="J21" t="n">
-        <v>15.05902283332416</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="K21" t="n">
-        <v>52.90632646829521</v>
+        <v>52.90632646829524</v>
       </c>
       <c r="L21" t="n">
         <v>170.0832391874856</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5778336703206</v>
+        <v>351.5778336703211</v>
       </c>
       <c r="N21" t="n">
-        <v>537.9332412327074</v>
+        <v>537.933241232708</v>
       </c>
       <c r="O21" t="n">
-        <v>669.4632308531762</v>
+        <v>669.4632308531769</v>
       </c>
       <c r="P21" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662099</v>
       </c>
       <c r="Q21" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662099</v>
       </c>
       <c r="R21" t="n">
-        <v>752.9511416662092</v>
+        <v>616.8250188659952</v>
       </c>
       <c r="S21" t="n">
-        <v>562.8119644777726</v>
+        <v>616.8250188659952</v>
       </c>
       <c r="T21" t="n">
-        <v>562.8119644777726</v>
+        <v>616.8250188659952</v>
       </c>
       <c r="U21" t="n">
-        <v>372.6727872893359</v>
+        <v>426.6858416775583</v>
       </c>
       <c r="V21" t="n">
-        <v>355.4460083395654</v>
+        <v>236.5466644891214</v>
       </c>
       <c r="W21" t="n">
-        <v>355.4460083395654</v>
+        <v>236.5466644891214</v>
       </c>
       <c r="X21" t="n">
-        <v>165.3068311511287</v>
+        <v>46.40748730068458</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.3068311511287</v>
+        <v>46.40748730068458</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="C22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="D22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="E22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="F22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="G22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="H22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="I22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="J22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="K22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="L22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="M22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="N22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="O22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="P22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="R22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="S22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="T22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="U22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="V22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="W22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="X22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.8222699098791</v>
+        <v>462.8222699098798</v>
       </c>
       <c r="C23" t="n">
-        <v>409.6256435626564</v>
+        <v>409.6256435626571</v>
       </c>
       <c r="D23" t="n">
-        <v>368.9879442244757</v>
+        <v>368.9879442244763</v>
       </c>
       <c r="E23" t="n">
-        <v>294.3030202202253</v>
+        <v>294.303020220226</v>
       </c>
       <c r="F23" t="n">
-        <v>187.577351187311</v>
+        <v>187.5773511873117</v>
       </c>
       <c r="G23" t="n">
-        <v>65.05341976673297</v>
+        <v>65.05341976673299</v>
       </c>
       <c r="H23" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="I23" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="J23" t="n">
-        <v>201.414430395711</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="K23" t="n">
-        <v>201.414430395711</v>
+        <v>103.2913312661131</v>
       </c>
       <c r="L23" t="n">
-        <v>387.7698379580977</v>
+        <v>289.6467388285</v>
       </c>
       <c r="M23" t="n">
-        <v>468.3959396395111</v>
+        <v>370.2728405099134</v>
       </c>
       <c r="N23" t="n">
-        <v>566.5957341038225</v>
+        <v>445.3611207915318</v>
       </c>
       <c r="O23" t="n">
-        <v>752.9511416662092</v>
+        <v>631.7165283539188</v>
       </c>
       <c r="P23" t="n">
-        <v>752.9511416662092</v>
+        <v>631.7165283539188</v>
       </c>
       <c r="Q23" t="n">
-        <v>752.9511416662092</v>
+        <v>631.7165283539188</v>
       </c>
       <c r="R23" t="n">
-        <v>752.9511416662092</v>
+        <v>631.7165283539188</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9511416662092</v>
+        <v>631.7165283539188</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9511416662092</v>
+        <v>706.0348562496183</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662099</v>
       </c>
       <c r="V23" t="n">
-        <v>729.3764484220438</v>
+        <v>729.3764484220445</v>
       </c>
       <c r="W23" t="n">
-        <v>688.6131893025099</v>
+        <v>688.6131893025106</v>
       </c>
       <c r="X23" t="n">
-        <v>625.7426064769768</v>
+        <v>625.7426064769775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.1418689809952</v>
+        <v>540.1418689809959</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>365.2514133393287</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="C24" t="n">
-        <v>175.8391390722924</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="D24" t="n">
-        <v>15.05902283332418</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="E24" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="F24" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="G24" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="H24" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="I24" t="n">
-        <v>15.05902283332416</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="J24" t="n">
-        <v>15.05902283332416</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="K24" t="n">
-        <v>52.90632646829521</v>
+        <v>52.90632646829524</v>
       </c>
       <c r="L24" t="n">
         <v>170.0832391874856</v>
@@ -6078,40 +6078,40 @@
         <v>351.5778336703206</v>
       </c>
       <c r="N24" t="n">
-        <v>537.9332412327074</v>
+        <v>537.9332412327076</v>
       </c>
       <c r="O24" t="n">
-        <v>669.4632308531762</v>
+        <v>669.4632308531764</v>
       </c>
       <c r="P24" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662093</v>
       </c>
       <c r="Q24" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662093</v>
       </c>
       <c r="R24" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662093</v>
       </c>
       <c r="S24" t="n">
-        <v>562.8119644777726</v>
+        <v>752.9511416662093</v>
       </c>
       <c r="T24" t="n">
-        <v>555.3905905277654</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="U24" t="n">
-        <v>555.3905905277654</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="V24" t="n">
-        <v>555.3905905277654</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="W24" t="n">
-        <v>555.3905905277654</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="X24" t="n">
-        <v>365.2514133393287</v>
+        <v>378.7614039003466</v>
       </c>
       <c r="Y24" t="n">
-        <v>365.2514133393287</v>
+        <v>188.6222267119097</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="C25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="D25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="E25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="F25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="G25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="H25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="I25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="J25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="K25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="L25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="M25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="N25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="O25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="P25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="R25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="S25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="T25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="U25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="V25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="W25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="X25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.0590228333242</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.439292541342</v>
+        <v>1020.439292541341</v>
       </c>
       <c r="C26" t="n">
-        <v>882.4100026867675</v>
+        <v>882.4100026867669</v>
       </c>
       <c r="D26" t="n">
-        <v>756.9396398412352</v>
+        <v>756.9396398412347</v>
       </c>
       <c r="E26" t="n">
-        <v>597.4220523296334</v>
+        <v>597.4220523296328</v>
       </c>
       <c r="F26" t="n">
-        <v>405.8637197893676</v>
+        <v>405.8637197893671</v>
       </c>
       <c r="G26" t="n">
-        <v>198.5071248614374</v>
+        <v>198.5071248614371</v>
       </c>
       <c r="H26" t="n">
-        <v>63.68006442067713</v>
+        <v>63.68006442067679</v>
       </c>
       <c r="I26" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="J26" t="n">
-        <v>171.189825124409</v>
+        <v>171.1898251244089</v>
       </c>
       <c r="K26" t="n">
-        <v>375.7800213632373</v>
+        <v>375.7800213632371</v>
       </c>
       <c r="L26" t="n">
         <v>633.7098832436036</v>
@@ -6251,22 +6251,22 @@
         <v>1794.833373162373</v>
       </c>
       <c r="S26" t="n">
-        <v>1780.700641812818</v>
+        <v>1780.700641812819</v>
       </c>
       <c r="T26" t="n">
-        <v>1771.695269291794</v>
+        <v>1771.695269291795</v>
       </c>
       <c r="U26" t="n">
-        <v>1734.731481834429</v>
+        <v>1734.731481834428</v>
       </c>
       <c r="V26" t="n">
-        <v>1626.324125082912</v>
+        <v>1626.324125082911</v>
       </c>
       <c r="W26" t="n">
-        <v>1500.728202456027</v>
+        <v>1500.728202456026</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.024956123142</v>
+        <v>1353.024956123141</v>
       </c>
       <c r="Y26" t="n">
         <v>1182.591555119809</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>456.3230309969056</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="C27" t="n">
-        <v>266.9107567298694</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="D27" t="n">
-        <v>266.9107567298694</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="E27" t="n">
-        <v>144.369796890973</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="F27" t="n">
-        <v>144.369796890973</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="G27" t="n">
-        <v>144.369796890973</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="H27" t="n">
-        <v>144.369796890973</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="I27" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="J27" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="K27" t="n">
         <v>73.74397109821851</v>
@@ -6327,28 +6327,28 @@
         <v>792.1514846454</v>
       </c>
       <c r="R27" t="n">
-        <v>792.1514846454</v>
+        <v>656.0253618451853</v>
       </c>
       <c r="S27" t="n">
-        <v>792.1514846454</v>
+        <v>462.4856931646988</v>
       </c>
       <c r="T27" t="n">
-        <v>790.7198194914165</v>
+        <v>245.3403912176341</v>
       </c>
       <c r="U27" t="n">
-        <v>766.8090954317128</v>
+        <v>221.4296671579304</v>
       </c>
       <c r="V27" t="n">
-        <v>739.443014128428</v>
+        <v>194.0635858546457</v>
       </c>
       <c r="W27" t="n">
-        <v>685.7580816518005</v>
+        <v>49.61808132506108</v>
       </c>
       <c r="X27" t="n">
-        <v>681.963724061578</v>
+        <v>45.82372373483862</v>
       </c>
       <c r="Y27" t="n">
-        <v>456.3230309969056</v>
+        <v>35.89666746324747</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.4768514258279</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="C28" t="n">
-        <v>118.1051776844741</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="D28" t="n">
-        <v>118.1051776844741</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="E28" t="n">
-        <v>118.1051776844741</v>
+        <v>107.0582230840436</v>
       </c>
       <c r="F28" t="n">
-        <v>118.1051776844741</v>
+        <v>180.9415451086803</v>
       </c>
       <c r="G28" t="n">
-        <v>118.1051776844741</v>
+        <v>180.9415451086803</v>
       </c>
       <c r="H28" t="n">
-        <v>132.0244686434872</v>
+        <v>180.9415451086803</v>
       </c>
       <c r="I28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="J28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="K28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="L28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="M28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="N28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="O28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="P28" t="n">
-        <v>180.222850820225</v>
+        <v>229.1399272854181</v>
       </c>
       <c r="Q28" t="n">
-        <v>265.6485300080867</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="R28" t="n">
-        <v>265.6485300080867</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="S28" t="n">
-        <v>243.5352495899207</v>
+        <v>243.5352495899206</v>
       </c>
       <c r="T28" t="n">
-        <v>233.2244841575351</v>
+        <v>233.224484157535</v>
       </c>
       <c r="U28" t="n">
-        <v>157.3658076608179</v>
+        <v>157.3658076608178</v>
       </c>
       <c r="V28" t="n">
         <v>125.4945806312224</v>
       </c>
       <c r="W28" t="n">
-        <v>47.96507895022751</v>
+        <v>47.96507895022746</v>
       </c>
       <c r="X28" t="n">
-        <v>39.51764967437683</v>
+        <v>39.51764967437681</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1020.439292541341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.410002686767</v>
+        <v>882.4100026867668</v>
       </c>
       <c r="D29" t="n">
-        <v>756.9396398412347</v>
+        <v>756.9396398412345</v>
       </c>
       <c r="E29" t="n">
-        <v>597.4220523296328</v>
+        <v>597.4220523296326</v>
       </c>
       <c r="F29" t="n">
-        <v>405.863719789367</v>
+        <v>405.8637197893668</v>
       </c>
       <c r="G29" t="n">
-        <v>198.507124861437</v>
+        <v>198.5071248614368</v>
       </c>
       <c r="H29" t="n">
-        <v>63.68006442067705</v>
+        <v>63.68006442067704</v>
       </c>
       <c r="I29" t="n">
         <v>35.89666746324745</v>
       </c>
       <c r="J29" t="n">
-        <v>171.189825124409</v>
+        <v>171.1898251244086</v>
       </c>
       <c r="K29" t="n">
-        <v>375.780021363237</v>
+        <v>375.7800213632368</v>
       </c>
       <c r="L29" t="n">
-        <v>633.7098832436034</v>
+        <v>633.7098832436031</v>
       </c>
       <c r="M29" t="n">
         <v>925.7569203459154</v>
@@ -6479,31 +6479,31 @@
         <v>1457.681446538518</v>
       </c>
       <c r="P29" t="n">
-        <v>1653.968221977899</v>
+        <v>1653.968221977898</v>
       </c>
       <c r="Q29" t="n">
         <v>1776.429522151094</v>
       </c>
       <c r="R29" t="n">
-        <v>1794.833373162373</v>
+        <v>1794.833373162372</v>
       </c>
       <c r="S29" t="n">
-        <v>1780.700641812818</v>
+        <v>1780.700641812817</v>
       </c>
       <c r="T29" t="n">
-        <v>1771.695269291794</v>
+        <v>1771.695269291793</v>
       </c>
       <c r="U29" t="n">
-        <v>1734.731481834429</v>
+        <v>1734.731481834428</v>
       </c>
       <c r="V29" t="n">
-        <v>1626.324125082912</v>
+        <v>1626.324125082911</v>
       </c>
       <c r="W29" t="n">
-        <v>1500.728202456027</v>
+        <v>1500.728202456026</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.024956123142</v>
+        <v>1353.024956123141</v>
       </c>
       <c r="Y29" t="n">
         <v>1182.591555119809</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.7871780699705</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="C30" t="n">
-        <v>196.6767837022157</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="D30" t="n">
         <v>35.89666746324745</v>
@@ -6570,22 +6570,22 @@
         <v>792.1514846454</v>
       </c>
       <c r="T30" t="n">
-        <v>575.0061826983354</v>
+        <v>790.7198194914165</v>
       </c>
       <c r="U30" t="n">
         <v>551.0954586386316</v>
       </c>
       <c r="V30" t="n">
-        <v>523.7293773353468</v>
+        <v>308.0157405422657</v>
       </c>
       <c r="W30" t="n">
-        <v>470.0444448587193</v>
+        <v>49.61808132506118</v>
       </c>
       <c r="X30" t="n">
-        <v>466.2500872684968</v>
+        <v>45.82372373483867</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.3230309969056</v>
+        <v>35.89666746324745</v>
       </c>
     </row>
     <row r="31">
@@ -6619,19 +6619,19 @@
         <v>35.89666746324745</v>
       </c>
       <c r="J31" t="n">
-        <v>35.89666746324745</v>
+        <v>128.2378039399678</v>
       </c>
       <c r="K31" t="n">
-        <v>70.67472915719867</v>
+        <v>128.2378039399678</v>
       </c>
       <c r="L31" t="n">
-        <v>70.67472915719867</v>
+        <v>128.2378039399678</v>
       </c>
       <c r="M31" t="n">
-        <v>70.67472915719867</v>
+        <v>128.2378039399678</v>
       </c>
       <c r="N31" t="n">
-        <v>265.6485300080869</v>
+        <v>128.2378039399678</v>
       </c>
       <c r="O31" t="n">
         <v>265.6485300080869</v>
@@ -6677,7 +6677,7 @@
         <v>1019.832850486846</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8865652710156</v>
+        <v>881.8865652710157</v>
       </c>
       <c r="D32" t="n">
         <v>756.4992070642272</v>
@@ -6689,28 +6689,28 @@
         <v>405.5892962898471</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3157060006608</v>
+        <v>198.3157060006611</v>
       </c>
       <c r="H32" t="n">
-        <v>63.57165019864437</v>
+        <v>63.57165019864433</v>
       </c>
       <c r="I32" t="n">
-        <v>35.87125787995855</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J32" t="n">
-        <v>169.2685231885009</v>
+        <v>171.2457683875525</v>
       </c>
       <c r="K32" t="n">
-        <v>373.9400722737619</v>
+        <v>375.9173174728135</v>
       </c>
       <c r="L32" t="n">
-        <v>631.951287000561</v>
+        <v>633.9285321996126</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0796769493061</v>
+        <v>926.0569221483577</v>
       </c>
       <c r="N32" t="n">
-        <v>1210.670245498256</v>
+        <v>1212.647490697308</v>
       </c>
       <c r="O32" t="n">
         <v>1456.166908834774</v>
@@ -6734,7 +6734,7 @@
         <v>1733.710016586215</v>
       </c>
       <c r="V32" t="n">
-        <v>1625.385664473441</v>
+        <v>1625.385664473442</v>
       </c>
       <c r="W32" t="n">
         <v>1499.8727464853</v>
@@ -6768,19 +6768,19 @@
         <v>186.1190661977631</v>
       </c>
       <c r="G33" t="n">
-        <v>35.87125787995855</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="H33" t="n">
-        <v>35.87125787995855</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="I33" t="n">
-        <v>35.87125787995855</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J33" t="n">
-        <v>35.87125787995855</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="K33" t="n">
-        <v>73.71856151492959</v>
+        <v>73.71856151492958</v>
       </c>
       <c r="L33" t="n">
         <v>190.89547423412</v>
@@ -6801,25 +6801,25 @@
         <v>792.1260750621112</v>
       </c>
       <c r="R33" t="n">
-        <v>737.3291380843636</v>
+        <v>792.1260750621112</v>
       </c>
       <c r="S33" t="n">
-        <v>737.3291380843636</v>
+        <v>792.1260750621112</v>
       </c>
       <c r="T33" t="n">
-        <v>520.183836137299</v>
+        <v>574.9807731150465</v>
       </c>
       <c r="U33" t="n">
-        <v>496.356116716339</v>
+        <v>335.3564122622616</v>
       </c>
       <c r="V33" t="n">
-        <v>253.276398619973</v>
+        <v>308.0733355977206</v>
       </c>
       <c r="W33" t="n">
-        <v>199.6744707820893</v>
+        <v>254.4714077598369</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9631178306105</v>
+        <v>250.7600548083582</v>
       </c>
       <c r="Y33" t="n">
         <v>186.1190661977631</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.53279468897171</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="C34" t="n">
-        <v>71.53279468897171</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="D34" t="n">
-        <v>71.53279468897171</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="E34" t="n">
-        <v>71.53279468897171</v>
+        <v>107.1141663471874</v>
       </c>
       <c r="F34" t="n">
-        <v>71.53279468897171</v>
+        <v>107.1141663471874</v>
       </c>
       <c r="G34" t="n">
-        <v>116.0207134101466</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0207134101466</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="I34" t="n">
-        <v>116.0207134101466</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="J34" t="n">
-        <v>208.4432027332997</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="K34" t="n">
-        <v>208.4432027332997</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="L34" t="n">
-        <v>208.4432027332997</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="M34" t="n">
-        <v>208.4432027332997</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="N34" t="n">
-        <v>254.9625458984476</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="O34" t="n">
-        <v>254.9625458984476</v>
+        <v>151.6020850683623</v>
       </c>
       <c r="P34" t="n">
-        <v>254.9625458984476</v>
+        <v>169.4555138641529</v>
       </c>
       <c r="Q34" t="n">
-        <v>254.9625458984476</v>
+        <v>254.9625458984474</v>
       </c>
       <c r="R34" t="n">
-        <v>265.0420879535916</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="S34" t="n">
-        <v>243.0118121741695</v>
+        <v>243.0118121741693</v>
       </c>
       <c r="T34" t="n">
-        <v>232.7840513805276</v>
+        <v>232.7840513805274</v>
       </c>
       <c r="U34" t="n">
-        <v>157.0083795225541</v>
+        <v>157.008379522554</v>
       </c>
       <c r="V34" t="n">
-        <v>125.2201571317023</v>
+        <v>125.2201571317022</v>
       </c>
       <c r="W34" t="n">
-        <v>47.77366008945113</v>
+        <v>47.77366008945107</v>
       </c>
       <c r="X34" t="n">
-        <v>39.40923545234418</v>
+        <v>39.40923545234414</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.87125787995855</v>
+        <v>35.87125787995854</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>630.1442098352471</v>
+        <v>630.1442098352469</v>
       </c>
       <c r="C35" t="n">
-        <v>550.0663537950963</v>
+        <v>550.0663537950961</v>
       </c>
       <c r="D35" t="n">
-        <v>482.5474247639877</v>
+        <v>482.5474247639875</v>
       </c>
       <c r="E35" t="n">
         <v>380.9812710668093</v>
@@ -6926,61 +6926,61 @@
         <v>247.3743723409671</v>
       </c>
       <c r="G35" t="n">
-        <v>97.96921122746112</v>
+        <v>97.96921122746105</v>
       </c>
       <c r="H35" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I35" t="n">
-        <v>21.09358460112435</v>
+        <v>50.66127752466415</v>
       </c>
       <c r="J35" t="n">
-        <v>21.09358460112435</v>
+        <v>50.66127752466415</v>
       </c>
       <c r="K35" t="n">
-        <v>282.1266940400382</v>
+        <v>311.6943869635779</v>
       </c>
       <c r="L35" t="n">
-        <v>543.159803478952</v>
+        <v>358.2033134230454</v>
       </c>
       <c r="M35" t="n">
-        <v>623.7859051603654</v>
+        <v>438.8294151044588</v>
       </c>
       <c r="N35" t="n">
-        <v>884.8190145992792</v>
+        <v>699.8625245433725</v>
       </c>
       <c r="O35" t="n">
-        <v>918.8133896684654</v>
+        <v>733.8568996125588</v>
       </c>
       <c r="P35" t="n">
-        <v>918.8133896684654</v>
+        <v>986.9418753334562</v>
       </c>
       <c r="Q35" t="n">
-        <v>1054.679230056217</v>
+        <v>991.1625275758461</v>
       </c>
       <c r="R35" t="n">
-        <v>1054.679230056217</v>
+        <v>991.1625275758461</v>
       </c>
       <c r="S35" t="n">
-        <v>1054.679230056217</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="T35" t="n">
-        <v>1054.679230056217</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="U35" t="n">
         <v>1054.679230056217</v>
       </c>
       <c r="V35" t="n">
-        <v>1004.223307119124</v>
+        <v>1004.223307119123</v>
       </c>
       <c r="W35" t="n">
-        <v>936.5788183066618</v>
+        <v>936.5788183066613</v>
       </c>
       <c r="X35" t="n">
-        <v>846.8270057882007</v>
+        <v>846.8270057882004</v>
       </c>
       <c r="Y35" t="n">
-        <v>734.3450385992912</v>
+        <v>734.345038599291</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.09358460112435</v>
+        <v>181.8737008400926</v>
       </c>
       <c r="C36" t="n">
-        <v>21.09358460112435</v>
+        <v>181.8737008400926</v>
       </c>
       <c r="D36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="E36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="F36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K36" t="n">
-        <v>58.94088823609539</v>
+        <v>58.94088823609538</v>
       </c>
       <c r="L36" t="n">
         <v>176.1178009552858</v>
@@ -7026,7 +7026,7 @@
         <v>357.6123954381208</v>
       </c>
       <c r="N36" t="n">
-        <v>562.3305013497752</v>
+        <v>562.3305013497751</v>
       </c>
       <c r="O36" t="n">
         <v>693.860490970244</v>
@@ -7044,22 +7044,22 @@
         <v>777.3484017832769</v>
       </c>
       <c r="T36" t="n">
-        <v>560.2030998362122</v>
+        <v>664.5777797892434</v>
       </c>
       <c r="U36" t="n">
-        <v>560.2030998362122</v>
+        <v>424.9534189364585</v>
       </c>
       <c r="V36" t="n">
-        <v>317.1233817398463</v>
+        <v>181.8737008400926</v>
       </c>
       <c r="W36" t="n">
-        <v>240.601578984428</v>
+        <v>181.8737008400926</v>
       </c>
       <c r="X36" t="n">
-        <v>21.09358460112435</v>
+        <v>181.8737008400926</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.09358460112435</v>
+        <v>181.8737008400926</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="C37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="D37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="E37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="F37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="L37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="M37" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="N37" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="O37" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="P37" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.57889514998946</v>
+        <v>58.57889514998935</v>
       </c>
       <c r="R37" t="n">
-        <v>58.57889514998946</v>
+        <v>58.57889514998935</v>
       </c>
       <c r="S37" t="n">
-        <v>58.57889514998946</v>
+        <v>58.57889514998935</v>
       </c>
       <c r="T37" t="n">
-        <v>58.57889514998946</v>
+        <v>58.57889514998935</v>
       </c>
       <c r="U37" t="n">
-        <v>40.67165246769578</v>
+        <v>40.67165246769572</v>
       </c>
       <c r="V37" t="n">
-        <v>40.67165246769578</v>
+        <v>40.67165246769572</v>
       </c>
       <c r="W37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="X37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>630.1442098352475</v>
+        <v>630.1442098352474</v>
       </c>
       <c r="C38" t="n">
-        <v>550.0663537950968</v>
+        <v>550.0663537950967</v>
       </c>
       <c r="D38" t="n">
         <v>482.547424763988</v>
@@ -7160,46 +7160,46 @@
         <v>380.9812710668097</v>
       </c>
       <c r="F38" t="n">
-        <v>247.3743723409674</v>
+        <v>247.3743723409675</v>
       </c>
       <c r="G38" t="n">
-        <v>97.96921122746112</v>
+        <v>97.96921122746105</v>
       </c>
       <c r="H38" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I38" t="n">
-        <v>21.09358460112435</v>
+        <v>50.66127752466415</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6924184748284</v>
+        <v>50.66127752466415</v>
       </c>
       <c r="K38" t="n">
-        <v>154.6924184748284</v>
+        <v>50.66127752466415</v>
       </c>
       <c r="L38" t="n">
-        <v>415.7255279137422</v>
+        <v>311.6943869635779</v>
       </c>
       <c r="M38" t="n">
-        <v>496.3516295951556</v>
+        <v>392.3204886449913</v>
       </c>
       <c r="N38" t="n">
-        <v>571.439909876774</v>
+        <v>653.353598083905</v>
       </c>
       <c r="O38" t="n">
-        <v>832.4730193156878</v>
+        <v>709.2989333492309</v>
       </c>
       <c r="P38" t="n">
-        <v>832.4730193156878</v>
+        <v>709.2989333492309</v>
       </c>
       <c r="Q38" t="n">
-        <v>1011.732519770399</v>
+        <v>888.5584338039426</v>
       </c>
       <c r="R38" t="n">
-        <v>1011.732519770399</v>
+        <v>963.7604850967381</v>
       </c>
       <c r="S38" t="n">
-        <v>1054.679230056217</v>
+        <v>1006.707195382556</v>
       </c>
       <c r="T38" t="n">
         <v>1054.679230056217</v>
@@ -7211,13 +7211,13 @@
         <v>1004.223307119124</v>
       </c>
       <c r="W38" t="n">
-        <v>936.5788183066621</v>
+        <v>936.5788183066618</v>
       </c>
       <c r="X38" t="n">
-        <v>846.8270057882009</v>
+        <v>846.8270057882007</v>
       </c>
       <c r="Y38" t="n">
-        <v>734.3450385992916</v>
+        <v>734.3450385992915</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="C39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="D39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="E39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="F39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K39" t="n">
-        <v>58.94088823609539</v>
+        <v>58.94088823609538</v>
       </c>
       <c r="L39" t="n">
         <v>176.1178009552858</v>
@@ -7263,7 +7263,7 @@
         <v>357.6123954381208</v>
       </c>
       <c r="N39" t="n">
-        <v>562.3305013497752</v>
+        <v>562.3305013497751</v>
       </c>
       <c r="O39" t="n">
         <v>693.860490970244</v>
@@ -7275,28 +7275,28 @@
         <v>777.3484017832769</v>
       </c>
       <c r="R39" t="n">
-        <v>641.2222789830622</v>
+        <v>777.3484017832769</v>
       </c>
       <c r="S39" t="n">
-        <v>641.2222789830622</v>
+        <v>583.8087331027904</v>
       </c>
       <c r="T39" t="n">
-        <v>641.2222789830622</v>
+        <v>583.8087331027904</v>
       </c>
       <c r="U39" t="n">
-        <v>641.2222789830622</v>
+        <v>344.1843722500055</v>
       </c>
       <c r="V39" t="n">
-        <v>398.1425608866963</v>
+        <v>344.1843722500055</v>
       </c>
       <c r="W39" t="n">
-        <v>398.1425608866963</v>
+        <v>77.85123334692037</v>
       </c>
       <c r="X39" t="n">
-        <v>398.1425608866963</v>
+        <v>77.85123334692037</v>
       </c>
       <c r="Y39" t="n">
-        <v>172.5018678220239</v>
+        <v>77.85123334692037</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="C40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="D40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="E40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="F40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J40" t="n">
-        <v>21.09358460112435</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="K40" t="n">
-        <v>21.09358460112435</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="L40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="M40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="N40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="O40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="P40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="R40" t="n">
-        <v>58.57889514998946</v>
+        <v>23.45392100631724</v>
       </c>
       <c r="S40" t="n">
-        <v>58.57889514998946</v>
+        <v>58.57889514998935</v>
       </c>
       <c r="T40" t="n">
-        <v>58.57889514998946</v>
+        <v>58.57889514998935</v>
       </c>
       <c r="U40" t="n">
-        <v>40.67165246769578</v>
+        <v>40.67165246769572</v>
       </c>
       <c r="V40" t="n">
-        <v>40.67165246769578</v>
+        <v>40.67165246769572</v>
       </c>
       <c r="W40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="X40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>610.1793435374097</v>
       </c>
       <c r="E41" t="n">
-        <v>478.4451529832376</v>
+        <v>478.4451529832374</v>
       </c>
       <c r="F41" t="n">
         <v>314.6702174004013</v>
@@ -7412,28 +7412,28 @@
         <v>190.5770209657086</v>
       </c>
       <c r="K41" t="n">
-        <v>190.5770209657086</v>
+        <v>422.3977245625135</v>
       </c>
       <c r="L41" t="n">
-        <v>362.447064410034</v>
+        <v>468.9066510219811</v>
       </c>
       <c r="M41" t="n">
-        <v>681.724608870323</v>
+        <v>607.5770731572715</v>
       </c>
       <c r="N41" t="n">
-        <v>995.4643319308169</v>
+        <v>921.3167962177654</v>
       </c>
       <c r="O41" t="n">
-        <v>1029.458707000003</v>
+        <v>1193.962614065827</v>
       </c>
       <c r="P41" t="n">
-        <v>1252.975989797361</v>
+        <v>1193.962614065827</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.667797328533</v>
+        <v>1343.654421596999</v>
       </c>
       <c r="R41" t="n">
-        <v>1402.667797328533</v>
+        <v>1389.288779966255</v>
       </c>
       <c r="S41" t="n">
         <v>1402.667797328533</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>379.2007967129447</v>
+        <v>217.4656302136069</v>
       </c>
       <c r="C42" t="n">
-        <v>189.7885224459084</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4810722293266</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4810722293266</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="F42" t="n">
         <v>28.05335594657065</v>
@@ -7512,28 +7512,28 @@
         <v>784.3081731287233</v>
       </c>
       <c r="R42" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287233</v>
       </c>
       <c r="S42" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287233</v>
       </c>
       <c r="T42" t="n">
-        <v>648.1820503285086</v>
+        <v>567.1628711816586</v>
       </c>
       <c r="U42" t="n">
-        <v>648.1820503285086</v>
+        <v>567.1628711816586</v>
       </c>
       <c r="V42" t="n">
-        <v>405.1023322321427</v>
+        <v>567.1628711816586</v>
       </c>
       <c r="W42" t="n">
-        <v>379.2007967129447</v>
+        <v>443.1063232782793</v>
       </c>
       <c r="X42" t="n">
-        <v>379.2007967129447</v>
+        <v>443.1063232782793</v>
       </c>
       <c r="Y42" t="n">
-        <v>379.2007967129447</v>
+        <v>217.4656302136069</v>
       </c>
     </row>
     <row r="43">
@@ -7552,40 +7552,40 @@
         <v>28.05335594657065</v>
       </c>
       <c r="E43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="F43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="G43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="H43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="I43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="J43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="K43" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="L43" t="n">
-        <v>126.4454189253435</v>
+        <v>129.9625702815896</v>
       </c>
       <c r="M43" t="n">
-        <v>126.4454189253435</v>
+        <v>129.9625702815896</v>
       </c>
       <c r="N43" t="n">
-        <v>126.4454189253435</v>
+        <v>129.9625702815896</v>
       </c>
       <c r="O43" t="n">
-        <v>126.4454189253435</v>
+        <v>129.9625702815896</v>
       </c>
       <c r="P43" t="n">
-        <v>126.4454189253435</v>
+        <v>129.9625702815896</v>
       </c>
       <c r="Q43" t="n">
         <v>129.9625702815896</v>
@@ -7625,16 +7625,16 @@
         <v>818.1122023226573</v>
       </c>
       <c r="C44" t="n">
-        <v>707.8663094255131</v>
+        <v>707.8663094255128</v>
       </c>
       <c r="D44" t="n">
-        <v>610.1793435374104</v>
+        <v>610.17934353741</v>
       </c>
       <c r="E44" t="n">
-        <v>478.4451529832381</v>
+        <v>478.4451529832373</v>
       </c>
       <c r="F44" t="n">
-        <v>314.6702174004018</v>
+        <v>314.6702174004011</v>
       </c>
       <c r="G44" t="n">
         <v>135.0970194299014</v>
@@ -7646,34 +7646,34 @@
         <v>28.05335594657065</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5770209657086</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="K44" t="n">
-        <v>422.3977245625135</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="L44" t="n">
-        <v>707.5580938008567</v>
+        <v>313.2137251849138</v>
       </c>
       <c r="M44" t="n">
-        <v>788.1841954822701</v>
+        <v>411.2898069790482</v>
       </c>
       <c r="N44" t="n">
-        <v>1101.923918542764</v>
+        <v>725.0295300395421</v>
       </c>
       <c r="O44" t="n">
-        <v>1179.150514531175</v>
+        <v>997.6753478876039</v>
       </c>
       <c r="P44" t="n">
-        <v>1402.667797328533</v>
+        <v>1221.192630684962</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.667797328533</v>
+        <v>1370.884438216134</v>
       </c>
       <c r="R44" t="n">
-        <v>1402.667797328533</v>
+        <v>1370.884438216134</v>
       </c>
       <c r="S44" t="n">
-        <v>1402.667797328533</v>
+        <v>1384.263455578412</v>
       </c>
       <c r="T44" t="n">
         <v>1402.667797328533</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.313824768875</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="C45" t="n">
-        <v>305.313824768875</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="D45" t="n">
-        <v>305.313824768875</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="E45" t="n">
-        <v>305.313824768875</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="F45" t="n">
-        <v>305.313824768875</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="G45" t="n">
-        <v>155.0660164510704</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="H45" t="n">
         <v>28.05335594657065</v>
@@ -7749,28 +7749,28 @@
         <v>784.3081731287233</v>
       </c>
       <c r="R45" t="n">
-        <v>784.3081731287233</v>
+        <v>648.1820503285086</v>
       </c>
       <c r="S45" t="n">
-        <v>753.2482469655188</v>
+        <v>648.1820503285086</v>
       </c>
       <c r="T45" t="n">
-        <v>753.2482469655188</v>
+        <v>648.1820503285086</v>
       </c>
       <c r="U45" t="n">
-        <v>753.2482469655188</v>
+        <v>499.1035789137446</v>
       </c>
       <c r="V45" t="n">
-        <v>753.2482469655188</v>
+        <v>499.1035789137446</v>
       </c>
       <c r="W45" t="n">
-        <v>483.84967769581</v>
+        <v>473.2020433945466</v>
       </c>
       <c r="X45" t="n">
-        <v>483.84967769581</v>
+        <v>253.694049011243</v>
       </c>
       <c r="Y45" t="n">
-        <v>483.84967769581</v>
+        <v>28.05335594657065</v>
       </c>
     </row>
     <row r="46">
@@ -7789,19 +7789,19 @@
         <v>28.05335594657065</v>
       </c>
       <c r="E46" t="n">
-        <v>126.4454189253435</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="F46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="G46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="H46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="I46" t="n">
-        <v>129.9625702815896</v>
+        <v>103.4822454812851</v>
       </c>
       <c r="J46" t="n">
         <v>129.9625702815896</v>
@@ -8058,7 +8058,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L3" t="n">
         <v>172.23559297146</v>
@@ -8067,13 +8067,13 @@
         <v>176.6027710248758</v>
       </c>
       <c r="N3" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>177.037405250518</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4487770454829</v>
+        <v>166.5187640737787</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8295,10 +8295,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>171.3658051887314</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L6" t="n">
-        <v>172.1063303597423</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M6" t="n">
         <v>176.6027710248758</v>
@@ -8307,10 +8307,10 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>163.6116624382006</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196.2738526071049</v>
+        <v>88.35851763599385</v>
       </c>
       <c r="C11" t="n">
-        <v>172.3921096104503</v>
+        <v>172.3921096104504</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.9587718714988</v>
       </c>
       <c r="E11" t="n">
-        <v>193.6655242909077</v>
+        <v>5.427738874355413</v>
       </c>
       <c r="F11" t="n">
         <v>225.385861869285</v>
@@ -23273,10 +23273,10 @@
         <v>241.0261416330725</v>
       </c>
       <c r="H11" t="n">
-        <v>148.9491987895667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.24867564227718</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>17.15336415818056</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.65843145023564</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>160.0830760550384</v>
       </c>
       <c r="X11" t="n">
         <v>181.9693265239777</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.2738526071049</v>
+        <v>196.2738526071048</v>
       </c>
       <c r="C14" t="n">
-        <v>172.3921096104503</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>225.385861869285</v>
       </c>
       <c r="G14" t="n">
-        <v>52.78835621652021</v>
+        <v>241.0261416330725</v>
       </c>
       <c r="H14" t="n">
-        <v>169.2219024907746</v>
+        <v>169.2219024907745</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.24867564227712</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.234871337414511</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73451669048101</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6584314502356</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.33726223721348</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>160.0830760550384</v>
       </c>
       <c r="X14" t="n">
-        <v>181.9693265239777</v>
+        <v>181.9693265239776</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.4721796477214</v>
+        <v>133.2598338596488</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>664311.7835714134</v>
+        <v>664311.7835714133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664311.7835714134</v>
+        <v>664311.7835714133</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>772136.1512542561</v>
       </c>
       <c r="C2" t="n">
-        <v>772136.151254256</v>
+        <v>772136.1512542559</v>
       </c>
       <c r="D2" t="n">
-        <v>772158.2734727069</v>
+        <v>772158.2734727068</v>
       </c>
       <c r="E2" t="n">
-        <v>664311.7835714129</v>
+        <v>664311.7835714131</v>
       </c>
       <c r="F2" t="n">
-        <v>664311.7835714127</v>
+        <v>664311.7835714128</v>
       </c>
       <c r="G2" t="n">
-        <v>773253.7302512197</v>
+        <v>773253.7302512194</v>
       </c>
       <c r="H2" t="n">
+        <v>773253.730251219</v>
+      </c>
+      <c r="I2" t="n">
+        <v>773253.7302512195</v>
+      </c>
+      <c r="J2" t="n">
+        <v>773253.730251219</v>
+      </c>
+      <c r="K2" t="n">
+        <v>773253.7302512189</v>
+      </c>
+      <c r="L2" t="n">
+        <v>773253.730251218</v>
+      </c>
+      <c r="M2" t="n">
         <v>773253.7302512191</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>773253.7302512191</v>
+      </c>
+      <c r="O2" t="n">
+        <v>773253.7302512191</v>
+      </c>
+      <c r="P2" t="n">
         <v>773253.7302512194</v>
-      </c>
-      <c r="J2" t="n">
-        <v>773253.7302512189</v>
-      </c>
-      <c r="K2" t="n">
-        <v>773253.730251219</v>
-      </c>
-      <c r="L2" t="n">
-        <v>773253.7302512178</v>
-      </c>
-      <c r="M2" t="n">
-        <v>773253.7302512192</v>
-      </c>
-      <c r="N2" t="n">
-        <v>773253.7302512192</v>
-      </c>
-      <c r="O2" t="n">
-        <v>773253.7302512192</v>
-      </c>
-      <c r="P2" t="n">
-        <v>773253.7302512192</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>278414.6253386763</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95781.95962135987</v>
+        <v>95781.95962135986</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>144050.8638359677</v>
+        <v>144050.8638359676</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>95847.69929524494</v>
       </c>
       <c r="M3" t="n">
-        <v>45831.79590713837</v>
+        <v>45831.7959071384</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72106.10470368371</v>
+        <v>72106.10470368367</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,13 +26436,13 @@
         <v>337932.2569579341</v>
       </c>
       <c r="I4" t="n">
-        <v>337932.256957934</v>
+        <v>337932.2569579341</v>
       </c>
       <c r="J4" t="n">
         <v>338620.7243128588</v>
       </c>
       <c r="K4" t="n">
-        <v>338620.7243128587</v>
+        <v>338620.7243128586</v>
       </c>
       <c r="L4" t="n">
         <v>338619.2559728171</v>
@@ -26476,7 +26476,7 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28591.63158141764</v>
+        <v>28591.63158141763</v>
       </c>
       <c r="F5" t="n">
         <v>28591.63158141764</v>
@@ -26485,13 +26485,13 @@
         <v>38656.99853567778</v>
       </c>
       <c r="H5" t="n">
-        <v>38656.99853567777</v>
+        <v>38656.99853567778</v>
       </c>
       <c r="I5" t="n">
-        <v>38656.99853567777</v>
+        <v>38656.99853567778</v>
       </c>
       <c r="J5" t="n">
-        <v>47433.12923790392</v>
+        <v>47433.12923790393</v>
       </c>
       <c r="K5" t="n">
         <v>47433.12923790392</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354897.2648242366</v>
+        <v>354894.0717413882</v>
       </c>
       <c r="C6" t="n">
-        <v>355969.4069613468</v>
+        <v>355966.2138784982</v>
       </c>
       <c r="D6" t="n">
-        <v>355917.2189279167</v>
+        <v>355914.0890514066</v>
       </c>
       <c r="E6" t="n">
-        <v>90278.2000462609</v>
+        <v>89966.93734146174</v>
       </c>
       <c r="F6" t="n">
-        <v>368692.825384937</v>
+        <v>368381.5626801377</v>
       </c>
       <c r="G6" t="n">
-        <v>300882.515136248</v>
+        <v>300882.5151362477</v>
       </c>
       <c r="H6" t="n">
-        <v>396664.4747576073</v>
+        <v>396664.4747576071</v>
       </c>
       <c r="I6" t="n">
         <v>396664.4747576076</v>
       </c>
       <c r="J6" t="n">
-        <v>243149.0128644886</v>
+        <v>243149.0128644887</v>
       </c>
       <c r="K6" t="n">
         <v>387199.8767004564</v>
       </c>
       <c r="L6" t="n">
-        <v>291366.0486927466</v>
+        <v>291366.0486927468</v>
       </c>
       <c r="M6" t="n">
-        <v>348605.0652034011</v>
+        <v>348605.065203401</v>
       </c>
       <c r="N6" t="n">
-        <v>394436.8611105395</v>
+        <v>394436.8611105394</v>
       </c>
       <c r="O6" t="n">
         <v>319179.5081600383</v>
       </c>
       <c r="P6" t="n">
-        <v>391285.6128637221</v>
+        <v>391285.6128637222</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="F2" t="n">
         <v>177.8133877707285</v>
@@ -26707,19 +26707,19 @@
         <v>297.5408372974283</v>
       </c>
       <c r="J2" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="K2" t="n">
         <v>213.5565004251503</v>
       </c>
       <c r="L2" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="M2" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="O2" t="n">
         <v>241.0620634130056</v>
@@ -26805,25 +26805,25 @@
         <v>188.2377854165523</v>
       </c>
       <c r="H4" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="I4" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="J4" t="n">
         <v>448.7083432905933</v>
       </c>
       <c r="K4" t="n">
-        <v>448.7083432905932</v>
+        <v>448.7083432905931</v>
       </c>
       <c r="L4" t="n">
-        <v>448.3907234994819</v>
+        <v>448.3907234994818</v>
       </c>
       <c r="M4" t="n">
-        <v>263.6698075140544</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="N4" t="n">
-        <v>263.6698075140544</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="O4" t="n">
         <v>350.6669493321332</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.7274495266998</v>
@@ -26938,13 +26938,13 @@
         <v>119.8096241190562</v>
       </c>
       <c r="M2" t="n">
-        <v>57.28974488392296</v>
+        <v>57.28974488392299</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.96269441002653</v>
+        <v>63.96269441002644</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.6698075140545</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>86.99714181807883</v>
+        <v>86.99714181807894</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.7274495266998</v>
@@ -27470,13 +27470,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>145.7629687550784</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H3" t="n">
         <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
         <v>73.03491363274843</v>
@@ -27506,16 +27506,16 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T3" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V3" t="n">
-        <v>240.6489209154022</v>
+        <v>237.4496712753888</v>
       </c>
       <c r="W3" t="n">
         <v>266.7045835770116</v>
@@ -27524,7 +27524,7 @@
         <v>214.4950153565467</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.3842861340256</v>
+        <v>220.1850364940121</v>
       </c>
     </row>
     <row r="4">
@@ -27616,7 +27616,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C5" t="n">
-        <v>350.2054973811788</v>
+        <v>350.3354128343698</v>
       </c>
       <c r="D5" t="n">
         <v>337.7721596422273</v>
@@ -27643,7 +27643,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F6" t="n">
-        <v>155.6241894799149</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>145.7629687550784</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H6" t="n">
         <v>127.8372169228968</v>
@@ -27716,7 +27716,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>70.21701454982455</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,22 +27737,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.64768193211606</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S6" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T6" t="n">
-        <v>215.8480604164874</v>
+        <v>212.6488107764739</v>
       </c>
       <c r="U6" t="n">
         <v>237.2423862021824</v>
       </c>
       <c r="V6" t="n">
-        <v>237.4496712753888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W6" t="n">
         <v>266.7045835770116</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.4551793114576</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27907,7 +27907,7 @@
         <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0054306354542</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.652835802731</v>
       </c>
       <c r="C9" t="n">
-        <v>184.0012820932411</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>155.6554456454537</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27977,7 +27977,7 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.1332942033654</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -27989,7 +27989,7 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.1320514842774</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -27998,7 +27998,7 @@
         <v>213.7960450083458</v>
       </c>
       <c r="Y9" t="n">
-        <v>219.8674167029008</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28087,43 +28087,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="C11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="D11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="E11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="F11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="G11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="H11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="I11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="J11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="K11" t="n">
-        <v>6.899736547546063</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.7972786676499</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>57.17272948325714</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>153.9000328214146</v>
@@ -28132,31 +28132,31 @@
         <v>15.28703028436153</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.8133877707285</v>
+        <v>170.869744698453</v>
       </c>
       <c r="R11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="S11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="T11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="U11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="V11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="W11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="X11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>101.4523239218475</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28214,28 +28214,28 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7648615722126</v>
+        <v>37.59923304920295</v>
       </c>
       <c r="S12" t="n">
-        <v>3.366486577129355</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="T12" t="n">
-        <v>177.8133877707285</v>
+        <v>26.73606351104175</v>
       </c>
       <c r="U12" t="n">
-        <v>48.99033182770471</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="V12" t="n">
-        <v>177.8133877707285</v>
+        <v>52.41113549884994</v>
       </c>
       <c r="W12" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="X12" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
     </row>
     <row r="13">
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28257,64 +28257,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="G13" t="n">
-        <v>177.5287913087632</v>
+        <v>168.7013833799563</v>
       </c>
       <c r="H13" t="n">
         <v>165.8298073532316</v>
       </c>
       <c r="I13" t="n">
-        <v>164.871265903193</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2826251961398</v>
+        <v>144.5844541035626</v>
       </c>
       <c r="K13" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L13" t="n">
-        <v>32.24227658594126</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="M13" t="n">
-        <v>177.8133877707285</v>
+        <v>25.31224314158861</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="O13" t="n">
-        <v>177.8133877707285</v>
+        <v>37.56488603590383</v>
       </c>
       <c r="P13" t="n">
-        <v>58.55218850117774</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="Q13" t="n">
-        <v>177.8133877707285</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="S13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="T13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="U13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="V13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="W13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="X13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.8133877707285</v>
+        <v>177.8133877707284</v>
       </c>
     </row>
     <row r="14">
@@ -28348,22 +28348,22 @@
         <v>177.8133877707285</v>
       </c>
       <c r="J14" t="n">
-        <v>96.29855756089164</v>
+        <v>76.89674521185623</v>
       </c>
       <c r="K14" t="n">
-        <v>177.8133877707285</v>
+        <v>6.899736547546063</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.2590718211305</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>90.56538691516016</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.3910376573418</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9000328214146</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>177.8133877707285</v>
@@ -28421,7 +28421,7 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I15" t="n">
         <v>107.3883981334483</v>
@@ -28451,16 +28451,16 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>67.75610023138957</v>
+      </c>
+      <c r="T15" t="n">
         <v>177.8133877707285</v>
       </c>
-      <c r="T15" t="n">
-        <v>26.73606351104175</v>
-      </c>
       <c r="U15" t="n">
-        <v>80.98804087529473</v>
+        <v>48.99033182770471</v>
       </c>
       <c r="V15" t="n">
         <v>177.8133877707285</v>
@@ -28488,46 +28488,46 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="G16" t="n">
-        <v>177.8133877707285</v>
+        <v>168.7013833799563</v>
       </c>
       <c r="H16" t="n">
         <v>177.8133877707285</v>
       </c>
       <c r="I16" t="n">
+        <v>164.871265903193</v>
+      </c>
+      <c r="J16" t="n">
         <v>177.8133877707285</v>
-      </c>
-      <c r="J16" t="n">
-        <v>120.2826251961398</v>
       </c>
       <c r="K16" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L16" t="n">
-        <v>177.8133877707285</v>
+        <v>32.24227658594126</v>
       </c>
       <c r="M16" t="n">
         <v>25.31224314158861</v>
       </c>
       <c r="N16" t="n">
-        <v>159.7295895738438</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="O16" t="n">
+        <v>129.5910742823013</v>
+      </c>
+      <c r="P16" t="n">
         <v>177.8133877707285</v>
       </c>
-      <c r="P16" t="n">
-        <v>58.55218850117774</v>
-      </c>
       <c r="Q16" t="n">
-        <v>177.8133877707285</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R16" t="n">
         <v>177.8133877707285</v>
@@ -28585,28 +28585,28 @@
         <v>241.0620634130056</v>
       </c>
       <c r="J17" t="n">
-        <v>76.89674521185623</v>
+        <v>132.0940101822868</v>
       </c>
       <c r="K17" t="n">
-        <v>6.899736547546063</v>
+        <v>195.1375219640984</v>
       </c>
       <c r="L17" t="n">
-        <v>141.2590718211305</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.3910376573419</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9000328214147</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>15.28703028436153</v>
       </c>
       <c r="Q17" t="n">
-        <v>189.0499290020354</v>
+        <v>278.0960028384752</v>
       </c>
       <c r="R17" t="n">
         <v>194.966751928909</v>
@@ -28615,7 +28615,7 @@
         <v>227.5479044612095</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4718192209641</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="U17" t="n">
         <v>250.1506500079419</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28658,10 +28658,10 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H18" t="n">
-        <v>55.84379961911732</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J18" t="n">
         <v>52.5437387880782</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.962098501482274</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7648615722126</v>
       </c>
       <c r="S18" t="n">
-        <v>3.366486577129327</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T18" t="n">
-        <v>26.73606351104172</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U18" t="n">
-        <v>237.228117244257</v>
+        <v>48.99033182770467</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>81.81117802198537</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.46679816045926</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>35.14650071747329</v>
       </c>
     </row>
     <row r="19">
@@ -28825,7 +28825,7 @@
         <v>76.89674521185623</v>
       </c>
       <c r="K20" t="n">
-        <v>195.1375219640984</v>
+        <v>6.899736547546063</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,25 +28834,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.3910376573418</v>
+        <v>112.391037657342</v>
       </c>
       <c r="O20" t="n">
-        <v>17.87524538955303</v>
+        <v>28.46992736112195</v>
       </c>
       <c r="P20" t="n">
-        <v>15.28703028436153</v>
+        <v>203.524815700914</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.0960028384752</v>
+        <v>89.85821742192286</v>
       </c>
       <c r="R20" t="n">
-        <v>194.966751928909</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="S20" t="n">
         <v>227.5479044612095</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4718192209641</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="U20" t="n">
         <v>250.1506500079419</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>128.1373352538918</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H21" t="n">
         <v>125.7425338994548</v>
@@ -28925,25 +28925,25 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.366486577129365</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T21" t="n">
         <v>214.973848927594</v>
       </c>
       <c r="U21" t="n">
-        <v>48.99033182770469</v>
+        <v>48.99033182770454</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5944097551295</v>
+        <v>52.41113549884977</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>29.0751290229183</v>
+        <v>29.07512902291813</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29059,22 +29059,22 @@
         <v>241.0620634130056</v>
       </c>
       <c r="J23" t="n">
-        <v>265.1345306284085</v>
+        <v>76.89674521185623</v>
       </c>
       <c r="K23" t="n">
-        <v>6.899736547546063</v>
+        <v>96.02328041905</v>
       </c>
       <c r="L23" t="n">
-        <v>141.2590718211305</v>
+        <v>141.2590718211307</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>23.34496382090202</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9000328214146</v>
+        <v>153.9000328214148</v>
       </c>
       <c r="P23" t="n">
         <v>15.28703028436153</v>
@@ -29089,10 +29089,10 @@
         <v>227.5479044612095</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4718192209641</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1506500079419</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="V23" t="n">
         <v>297.5408372974283</v>
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29165,10 +29165,10 @@
         <v>134.7648615722126</v>
       </c>
       <c r="S24" t="n">
-        <v>3.366486577129365</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T24" t="n">
-        <v>207.626688717087</v>
+        <v>26.73606351104158</v>
       </c>
       <c r="U24" t="n">
         <v>237.228117244257</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>29.0751290229183</v>
+        <v>35.10285946781906</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>35.14650071747315</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="C26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="D26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="E26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="F26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="G26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="H26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="I26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="J26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="K26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="L26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="M26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="N26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="O26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="P26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="R26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="S26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="T26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="U26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="V26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="X26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
     </row>
     <row r="27">
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>50.5120215992923</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29372,7 +29372,7 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J27" t="n">
         <v>52.5437387880782</v>
@@ -29399,28 +29399,28 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.5565004251503</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="V27" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W27" t="n">
-        <v>213.5565004251503</v>
+        <v>123.7035340927228</v>
       </c>
       <c r="X27" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.5565004251504</v>
       </c>
     </row>
     <row r="28">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.5565004251503</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.5565004251503</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="G28" t="n">
         <v>168.7013833799563</v>
       </c>
       <c r="H28" t="n">
-        <v>179.8896972108205</v>
+        <v>165.8298073532316</v>
       </c>
       <c r="I28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="J28" t="n">
         <v>120.2826251961398</v>
@@ -29475,31 +29475,31 @@
         <v>58.55218850117774</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.5565004251503</v>
+        <v>164.1453120764703</v>
       </c>
       <c r="R28" t="n">
         <v>203.45731940625</v>
       </c>
       <c r="S28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="T28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="U28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="V28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="X28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
     </row>
     <row r="29">
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>107.2188611002886</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29642,16 +29642,16 @@
         <v>191.6042719936817</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="U30" t="n">
-        <v>213.5565004251503</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.5565004251503</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.5565004251503</v>
+        <v>10.89090095197912</v>
       </c>
       <c r="X30" t="n">
         <v>213.5565004251503</v>
@@ -29691,10 +29691,10 @@
         <v>164.871265903193</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2826251961398</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="K31" t="n">
-        <v>102.2300265386323</v>
+        <v>67.10067129221696</v>
       </c>
       <c r="L31" t="n">
         <v>32.24227658594126</v>
@@ -29703,10 +29703,10 @@
         <v>25.31224314158861</v>
       </c>
       <c r="N31" t="n">
-        <v>213.5565004251503</v>
+        <v>16.61326724243495</v>
       </c>
       <c r="O31" t="n">
-        <v>37.56488603590383</v>
+        <v>176.3635992360241</v>
       </c>
       <c r="P31" t="n">
         <v>58.55218850117774</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="C32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="D32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="E32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="F32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="G32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="H32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="I32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="J32" t="n">
-        <v>211.6414576447273</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="K32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="L32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="M32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="N32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="O32" t="n">
-        <v>213.6386750175066</v>
+        <v>211.6414576447274</v>
       </c>
       <c r="P32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="R32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="S32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="T32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="U32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="V32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R33" t="n">
-        <v>80.51589396424249</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S33" t="n">
         <v>191.6042719936817</v>
@@ -29882,19 +29882,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>213.6386750175066</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W33" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X33" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.6386750175066</v>
+        <v>159.3897074095365</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.6386750175066</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29913,13 +29913,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="H34" t="n">
         <v>165.8298073532316</v>
@@ -29928,7 +29928,7 @@
         <v>164.871265903193</v>
       </c>
       <c r="J34" t="n">
-        <v>213.6386750175066</v>
+        <v>120.2826251961398</v>
       </c>
       <c r="K34" t="n">
         <v>67.10067129221696</v>
@@ -29940,40 +29940,40 @@
         <v>25.31224314158861</v>
       </c>
       <c r="N34" t="n">
-        <v>63.60250276278639</v>
+        <v>16.61326724243495</v>
       </c>
       <c r="O34" t="n">
         <v>37.56488603590383</v>
       </c>
       <c r="P34" t="n">
-        <v>58.55218850117774</v>
+        <v>76.58595496157233</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2679355889264</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="R34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="S34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="T34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="U34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="V34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="C35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="D35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="E35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="F35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="G35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="H35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0620634130056</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="J35" t="n">
         <v>76.89674521185623</v>
       </c>
       <c r="K35" t="n">
-        <v>270.5695440616004</v>
+        <v>270.5695440616003</v>
       </c>
       <c r="L35" t="n">
-        <v>216.6910939186326</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>187.8230597548439</v>
+        <v>187.8230597548438</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.28703028436153</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="Q35" t="n">
-        <v>227.0964400358137</v>
+        <v>94.12150251524595</v>
       </c>
       <c r="R35" t="n">
         <v>194.966751928909</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5479044612095</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="T35" t="n">
         <v>222.4718192209641</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1506500079419</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="V35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="W35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="X35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="Y35" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30116,19 +30116,19 @@
         <v>191.6042719936817</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>103.3309331535009</v>
       </c>
       <c r="U36" t="n">
-        <v>237.228117244257</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>190.9479988491474</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30174,7 +30174,7 @@
         <v>32.24227658594126</v>
       </c>
       <c r="M37" t="n">
-        <v>63.17619319094732</v>
+        <v>25.31224314158861</v>
       </c>
       <c r="N37" t="n">
         <v>16.61326724243495</v>
@@ -30186,7 +30186,7 @@
         <v>58.55218850117774</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.2679355889264</v>
+        <v>165.131885638285</v>
       </c>
       <c r="R37" t="n">
         <v>203.45731940625</v>
@@ -30198,13 +30198,13 @@
         <v>223.7641582032121</v>
       </c>
       <c r="U37" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="C38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="D38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="E38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="F38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="G38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="H38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0620634130056</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="J38" t="n">
-        <v>211.8450622560017</v>
+        <v>76.89674521185623</v>
       </c>
       <c r="K38" t="n">
         <v>6.899736547546063</v>
       </c>
       <c r="L38" t="n">
-        <v>216.6910939186326</v>
+        <v>216.6910939186324</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>187.8230597548438</v>
       </c>
       <c r="O38" t="n">
-        <v>229.3320549189168</v>
+        <v>22.17268706680768</v>
       </c>
       <c r="P38" t="n">
         <v>15.28703028436153</v>
       </c>
       <c r="Q38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="R38" t="n">
-        <v>194.966751928909</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="S38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4718192209641</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="U38" t="n">
         <v>250.1506500079419</v>
       </c>
       <c r="V38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="W38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="X38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="Y38" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.85629400897514</v>
+        <v>120.5604221393277</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30347,28 +30347,28 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S39" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.973848927594</v>
       </c>
       <c r="U39" t="n">
-        <v>237.228117244257</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>3.034776062957349</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30402,13 +30402,13 @@
         <v>164.871265903193</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2826251961398</v>
+        <v>122.6668033832034</v>
       </c>
       <c r="K40" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L40" t="n">
-        <v>70.10622663529996</v>
+        <v>32.24227658594126</v>
       </c>
       <c r="M40" t="n">
         <v>25.31224314158861</v>
@@ -30429,19 +30429,19 @@
         <v>203.45731940625</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4486480391346</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="T40" t="n">
         <v>223.7641582032121</v>
       </c>
       <c r="U40" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>270.9284199014296</v>
+        <v>270.9284199014297</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30484,31 +30484,31 @@
         <v>241.0620634130056</v>
       </c>
       <c r="K41" t="n">
-        <v>6.899736547546063</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="L41" t="n">
-        <v>126.6273908937959</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>241.0620634130056</v>
+        <v>58.63062672108779</v>
       </c>
       <c r="N41" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0620634130056</v>
+        <v>15.28703028436153</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="R41" t="n">
-        <v>194.966751928909</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5479044612095</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="T41" t="n">
         <v>222.4718192209641</v>
@@ -30542,13 +30542,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>157.8779393621625</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7453302346265</v>
@@ -30584,28 +30584,28 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S42" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T42" t="n">
-        <v>214.973848927594</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.228117244257</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0620634130056</v>
+        <v>143.8886011526661</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>241.0620634130056</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30645,7 +30645,7 @@
         <v>67.10067129221696</v>
       </c>
       <c r="L43" t="n">
-        <v>32.24227658594126</v>
+        <v>135.1808769243443</v>
       </c>
       <c r="M43" t="n">
         <v>25.31224314158861</v>
@@ -30660,7 +30660,7 @@
         <v>58.55218850117774</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.8206137265488</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R43" t="n">
         <v>203.45731940625</v>
@@ -30718,37 +30718,37 @@
         <v>241.0620634130056</v>
       </c>
       <c r="J44" t="n">
-        <v>241.0620634130056</v>
+        <v>76.89674521185623</v>
       </c>
       <c r="K44" t="n">
-        <v>241.0620634130056</v>
+        <v>6.899736547546063</v>
       </c>
       <c r="L44" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>17.62624253810199</v>
       </c>
       <c r="N44" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="O44" t="n">
-        <v>43.66891001941889</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="P44" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.85821742192286</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="R44" t="n">
         <v>194.966751928909</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5479044612095</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4718192209641</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="U44" t="n">
         <v>241.0620634130056</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30788,10 +30788,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I45" t="n">
         <v>107.3883981334483</v>
@@ -30821,28 +30821,28 @@
         <v>6.962098501482274</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>160.8549450921092</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T45" t="n">
         <v>214.973848927594</v>
       </c>
       <c r="U45" t="n">
-        <v>237.228117244257</v>
+        <v>89.64043054364069</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30861,10 +30861,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>241.0620634130056</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>142.479560356069</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.7013833799563</v>
@@ -30873,10 +30873,10 @@
         <v>165.8298073532316</v>
       </c>
       <c r="I46" t="n">
-        <v>164.871265903193</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2826251961398</v>
+        <v>147.0304280247302</v>
       </c>
       <c r="K46" t="n">
         <v>67.10067129221696</v>
@@ -32078,7 +32078,7 @@
         <v>20.49117484467023</v>
       </c>
       <c r="K15" t="n">
-        <v>35.02268159585086</v>
+        <v>35.02268159585088</v>
       </c>
       <c r="L15" t="n">
         <v>47.0923174729771</v>
@@ -32558,10 +32558,10 @@
         <v>47.0923174729771</v>
       </c>
       <c r="M21" t="n">
-        <v>54.95451328984721</v>
+        <v>54.95451328984768</v>
       </c>
       <c r="N21" t="n">
-        <v>37.86081558359629</v>
+        <v>37.86081558359646</v>
       </c>
       <c r="O21" t="n">
         <v>51.60321070511238</v>
@@ -32798,7 +32798,7 @@
         <v>54.95451328984721</v>
       </c>
       <c r="N24" t="n">
-        <v>37.86081558359629</v>
+        <v>37.86081558359646</v>
       </c>
       <c r="O24" t="n">
         <v>51.60321070511238</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L3" t="n">
         <v>3.199249640013477</v>
@@ -34787,13 +34787,13 @@
         <v>3.199249640013477</v>
       </c>
       <c r="N3" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34912,7 +34912,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>3.199249640013477</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.069987028295762</v>
       </c>
       <c r="M6" t="n">
         <v>3.199249640013477</v>
@@ -35027,10 +35027,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
+        <v>0.1678556611008975</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.374773696533903</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
@@ -35410,16 +35410,16 @@
         <v>100.9166425588722</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>170.9136512231824</v>
       </c>
       <c r="L11" t="n">
         <v>46.97871359542179</v>
       </c>
       <c r="M11" t="n">
-        <v>188.2377854165523</v>
+        <v>81.44050674890244</v>
       </c>
       <c r="N11" t="n">
-        <v>133.0194772424676</v>
+        <v>75.84674775921047</v>
       </c>
       <c r="O11" t="n">
         <v>188.2377854165523</v>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>87.95517034880561</v>
+        <v>81.01152727653016</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1964671057603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.35620679875609</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35553,40 +35553,40 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>38.88650555228179</v>
       </c>
       <c r="G13" t="n">
-        <v>8.82740792880694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.94212186753545</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.30182890742276</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.5711111847872</v>
       </c>
       <c r="M13" t="n">
-        <v>152.5011446291398</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>161.2001205282935</v>
       </c>
       <c r="O13" t="n">
-        <v>140.2485017348246</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.2611992695507</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.54545218180204</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>19.40181234903541</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>170.9136512231824</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>46.97871359542179</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="M14" t="n">
-        <v>81.44050674890244</v>
+        <v>172.0058936640626</v>
       </c>
       <c r="N14" t="n">
-        <v>75.84674775921047</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="O14" t="n">
-        <v>188.2377854165523</v>
+        <v>34.33775259513764</v>
       </c>
       <c r="P14" t="n">
-        <v>162.5263574863669</v>
+        <v>162.526357486367</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.22959963128386</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L15" t="n">
         <v>118.3605178981721</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.63073752001779</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.88650555228185</v>
       </c>
       <c r="G16" t="n">
-        <v>9.112004390772169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>11.98358041749691</v>
+        <v>11.98358041749694</v>
       </c>
       <c r="I16" t="n">
-        <v>12.94212186753547</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.53076257458865</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.5711111847872</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>143.1163223314089</v>
+        <v>161.2001205282935</v>
       </c>
       <c r="O16" t="n">
-        <v>140.2485017348246</v>
+        <v>92.02618824639744</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.2611992695508</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.54545218180204</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,29 +35881,29 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>55.19726497043057</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="L17" t="n">
-        <v>188.2377854165523</v>
+        <v>46.97871359542179</v>
       </c>
       <c r="M17" t="n">
         <v>81.44050674890244</v>
       </c>
       <c r="N17" t="n">
+        <v>75.84674775921047</v>
+      </c>
+      <c r="O17" t="n">
+        <v>34.33775259513764</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="O17" t="n">
-        <v>188.2377854165523</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>99.1917115801125</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>75.06901807646423</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>46.97871359542179</v>
@@ -36130,25 +36130,25 @@
         <v>81.44050674890244</v>
       </c>
       <c r="N20" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="O20" t="n">
-        <v>52.21299798469067</v>
+        <v>62.8076799562596</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5740853685193</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>75.06901807646423</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>118.3605178981721</v>
       </c>
       <c r="M21" t="n">
-        <v>183.3278732149848</v>
+        <v>183.3278732149853</v>
       </c>
       <c r="N21" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="O21" t="n">
         <v>132.8585753742109</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>89.12354387150393</v>
       </c>
       <c r="L23" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="M23" t="n">
         <v>81.44050674890244</v>
       </c>
       <c r="N23" t="n">
-        <v>99.1917115801125</v>
+        <v>75.84674775921047</v>
       </c>
       <c r="O23" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>75.06901807646423</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.39018728948637</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.3278732149848</v>
       </c>
       <c r="N24" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165525</v>
       </c>
       <c r="O24" t="n">
         <v>132.8585753742109</v>
@@ -36598,7 +36598,7 @@
         <v>206.6567638776043</v>
       </c>
       <c r="L26" t="n">
-        <v>260.5352140205721</v>
+        <v>260.5352140205722</v>
       </c>
       <c r="M26" t="n">
         <v>294.9970071740528</v>
@@ -36616,7 +36616,7 @@
         <v>123.6982830032275</v>
       </c>
       <c r="R26" t="n">
-        <v>18.58974849624136</v>
+        <v>18.58974849624138</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,28 +36726,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.93957976018226</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.099319453178</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.88035921292538</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.62961820670373</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>14.05988985758896</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.68523452195736</v>
+        <v>48.68523452195738</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.28856483622391</v>
+        <v>36.87737648754384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.27387522901047</v>
       </c>
       <c r="K31" t="n">
-        <v>35.12935524641537</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>196.9432331827154</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.7987132001203</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>134.744712432871</v>
+        <v>136.7419298056504</v>
       </c>
       <c r="K32" t="n">
         <v>206.7389384699606</v>
       </c>
       <c r="L32" t="n">
-        <v>260.6173886129284</v>
+        <v>260.6173886129285</v>
       </c>
       <c r="M32" t="n">
         <v>295.0791817664091</v>
@@ -37081,7 +37081,7 @@
         <v>289.4854227767171</v>
       </c>
       <c r="O32" t="n">
-        <v>247.9764276126443</v>
+        <v>245.979210239865</v>
       </c>
       <c r="P32" t="n">
         <v>198.3516447331451</v>
@@ -37090,7 +37090,7 @@
         <v>123.7804575955838</v>
       </c>
       <c r="R32" t="n">
-        <v>18.67192308859764</v>
+        <v>18.67192308859767</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.02175435253855</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,13 +37209,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.96253380528168</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.93729163755035</v>
+        <v>44.93729163755037</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.3560498213668</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>46.98923552035143</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>18.0337664603946</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.37073942858024</v>
       </c>
       <c r="R34" t="n">
-        <v>10.18135561125661</v>
+        <v>10.18135561125663</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29.86635648842405</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>263.6698075140544</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="L35" t="n">
-        <v>263.6698075140544</v>
+        <v>46.97871359542179</v>
       </c>
       <c r="M35" t="n">
         <v>81.44050674890244</v>
       </c>
       <c r="N35" t="n">
-        <v>263.6698075140544</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="O35" t="n">
         <v>34.33775259513764</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>255.6413896170681</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.2382226138909</v>
+        <v>4.263285093323091</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>43.38051544022019</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>20.77776989348772</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>37.8639500493587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.86395004935859</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>29.86635648842405</v>
       </c>
       <c r="J38" t="n">
-        <v>134.9483170441455</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>263.6698075140544</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="M38" t="n">
         <v>81.44050674890244</v>
       </c>
       <c r="N38" t="n">
-        <v>75.84674775921047</v>
+        <v>263.6698075140542</v>
       </c>
       <c r="O38" t="n">
-        <v>263.6698075140544</v>
+        <v>56.51043966194532</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.0702024795067</v>
+        <v>181.0702024795068</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>75.96166797252067</v>
       </c>
       <c r="S38" t="n">
-        <v>43.38051544022013</v>
+        <v>43.38051544022019</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>48.45660068046559</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.384178187063539</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>37.8639500493587</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.47977186229505</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,31 +37780,31 @@
         <v>164.1653182011494</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.1623268654595</v>
       </c>
       <c r="L41" t="n">
-        <v>173.6061044892177</v>
+        <v>46.97871359542179</v>
       </c>
       <c r="M41" t="n">
-        <v>322.502570161908</v>
+        <v>140.0711334699902</v>
       </c>
       <c r="N41" t="n">
         <v>316.9088111722161</v>
       </c>
       <c r="O41" t="n">
-        <v>34.33775259513764</v>
+        <v>275.3998160081433</v>
       </c>
       <c r="P41" t="n">
-        <v>225.7750331286441</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2038459910827</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.09531148409661</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.51415895179612</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.38592220078061</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>102.938600338403</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.552678137622383</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.1653182011494</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.1623268654595</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>288.0407770084274</v>
       </c>
       <c r="M44" t="n">
-        <v>81.44050674890244</v>
+        <v>99.06674928700443</v>
       </c>
       <c r="N44" t="n">
         <v>316.9088111722161</v>
       </c>
       <c r="O44" t="n">
-        <v>78.00666261455653</v>
+        <v>275.3998160081433</v>
       </c>
       <c r="P44" t="n">
         <v>225.7750331286441</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2038459910827</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.51415895179612</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.59024419204153</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.38592220078061</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.552678137622383</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.19079750981261</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>26.74780282859039</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
